--- a/Random/Matlab2025Files/SS/all_algorithm_metrics.xlsx
+++ b/Random/Matlab2025Files/SS/all_algorithm_metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\University\2025\Investigation\PROJECT-25P85\Random\Matlab2025Files\SS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E7440\Documents\Uni2025\Investigation\PROJECT-25P85\Random\Matlab2025Files\SS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C5573-C604-47A3-8215-ECC385B12B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031CC32-EFE3-4869-B788-B3CBE474A236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="19620" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,32 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="286" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>specsub_processed_output</t>
-  </si>
-  <si>
     <t>mband_processed_output</t>
   </si>
   <si>
+    <t>python_mband_processed_output</t>
+  </si>
+  <si>
     <t>File</t>
   </si>
   <si>
-    <t>specsub_sp21_station_sn0.wav</t>
-  </si>
-  <si>
-    <t>specsub_sp21_station_sn10.wav</t>
-  </si>
-  <si>
-    <t>specsub_sp21_station_sn15.wav</t>
-  </si>
-  <si>
-    <t>specsub_sp21_station_sn5.wav</t>
-  </si>
-  <si>
     <t>mband_sp21_station_sn0.wav</t>
   </si>
   <si>
@@ -58,6 +46,18 @@
     <t>mband_sp21_station_sn5.wav</t>
   </si>
   <si>
+    <t>python_mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
     <t>SNR</t>
   </si>
   <si>
@@ -125,28 +125,13 @@
   </si>
   <si>
     <t>SII</t>
-  </si>
-  <si>
-    <t>mband_causal_processed_output</t>
-  </si>
-  <si>
-    <t>mband_causal_sp21_station_sn0.wav</t>
-  </si>
-  <si>
-    <t>mband_causal_sp21_station_sn10.wav</t>
-  </si>
-  <si>
-    <t>mband_causal_sp21_station_sn15.wav</t>
-  </si>
-  <si>
-    <t>mband_causal_sp21_station_sn5.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -194,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -345,7 +330,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -369,9 +354,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -395,7 +380,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -430,7 +415,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -448,7 +433,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -473,7 +458,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -509,43 +494,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="Y9" sqref="A1:Y9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="true"/>
-    <col min="2" max="2" width="33.453125" customWidth="true"/>
-    <col min="3" max="3" width="12.08984375" customWidth="true"/>
-    <col min="5" max="5" width="11.453125" customWidth="true"/>
-    <col min="6" max="6" width="12.453125" customWidth="true"/>
-    <col min="7" max="7" width="11.453125" customWidth="true"/>
-    <col min="21" max="21" width="12.453125" customWidth="true"/>
-    <col min="24" max="24" width="13.453125" customWidth="true"/>
-    <col min="25" max="25" width="12.453125" customWidth="true"/>
-    <col min="4" max="4" width="12.08984375" customWidth="true"/>
-    <col min="8" max="8" width="11.453125" customWidth="true"/>
-    <col min="9" max="9" width="11.453125" customWidth="true"/>
-    <col min="10" max="10" width="11.453125" customWidth="true"/>
-    <col min="11" max="11" width="11.453125" customWidth="true"/>
-    <col min="12" max="12" width="11.453125" customWidth="true"/>
-    <col min="13" max="13" width="11.453125" customWidth="true"/>
-    <col min="14" max="14" width="11.453125" customWidth="true"/>
-    <col min="15" max="15" width="11.453125" customWidth="true"/>
-    <col min="16" max="16" width="11.453125" customWidth="true"/>
-    <col min="17" max="17" width="11.453125" customWidth="true"/>
-    <col min="18" max="18" width="11.453125" customWidth="true"/>
-    <col min="19" max="19" width="11.453125" customWidth="true"/>
-    <col min="20" max="20" width="11.453125" customWidth="true"/>
-    <col min="22" max="22" width="12.453125" customWidth="true"/>
-    <col min="23" max="23" width="12.453125" customWidth="true"/>
+    <col min="1" max="1" width="31.5703125" customWidth="true"/>
+    <col min="2" max="2" width="35.85546875" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="13.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -622,7 +607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -630,76 +615,76 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>-4.4659674483216314</v>
+        <v>-10.206962587786265</v>
       </c>
       <c r="D2" s="0">
-        <v>-5.7667311340381113</v>
+        <v>-8.7632364591021208</v>
       </c>
       <c r="E2" s="0">
-        <v>87.546897311618722</v>
+        <v>80.383830439822262</v>
       </c>
       <c r="F2" s="0">
-        <v>1.0664662403220806</v>
+        <v>1.0774613457300257</v>
       </c>
       <c r="G2" s="0">
-        <v>3.0482103789829353</v>
+        <v>4.3070076111146811</v>
       </c>
       <c r="H2" s="0">
-        <v>6.1511307461536626</v>
+        <v>6.0293571045889687</v>
       </c>
       <c r="I2" s="0">
-        <v>6.0899897025491452</v>
+        <v>6.1429092773455816</v>
       </c>
       <c r="J2" s="0">
-        <v>2.6715947343929622</v>
+        <v>2.4296842457941334</v>
       </c>
       <c r="K2" s="0">
-        <v>2.2412760646676668</v>
+        <v>2.0364047570927508</v>
       </c>
       <c r="L2" s="0">
-        <v>2.2069913761700692</v>
+        <v>1.9628522693905692</v>
       </c>
       <c r="M2" s="0">
-        <v>2.7573395910522525</v>
+        <v>1.9796827468556308</v>
       </c>
       <c r="N2" s="0">
-        <v>1.950479573282333</v>
+        <v>2.1781637527108497</v>
       </c>
       <c r="O2" s="0">
-        <v>2.3320232121245601</v>
+        <v>1.9535190493745405</v>
       </c>
       <c r="P2" s="0">
-        <v>1.3946847928602675</v>
+        <v>1.8771836550370669</v>
       </c>
       <c r="Q2" s="0">
-        <v>1.281706051955934</v>
+        <v>1.5400311126230202</v>
       </c>
       <c r="R2" s="0">
-        <v>1.9063547533622498</v>
+        <v>2.2692155783666998</v>
       </c>
       <c r="S2" s="0">
-        <v>1.3245269883614759</v>
+        <v>1.4165230771055284</v>
       </c>
       <c r="T2" s="0">
-        <v>1.4870458753461149</v>
+        <v>1.9293040407605118</v>
       </c>
       <c r="U2" s="0">
-        <v>0.54101731377253826</v>
+        <v>0.55779137485575192</v>
       </c>
       <c r="V2" s="0">
-        <v>0.6041817762431323</v>
+        <v>0.63294303821523279</v>
       </c>
       <c r="W2" s="0">
-        <v>0.24275017889385633</v>
+        <v>0.36602415960328855</v>
       </c>
       <c r="X2" s="0">
-        <v>0.051559790372987788</v>
+        <v>0.047820163880449199</v>
       </c>
       <c r="Y2" s="0">
         <v>0.23571173354711331</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
@@ -707,76 +692,76 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>-3.1495175833322269</v>
+        <v>-7.4920028083323125</v>
       </c>
       <c r="D3" s="0">
-        <v>-5.1077716015399384</v>
+        <v>-7.8958260986933926</v>
       </c>
       <c r="E3" s="0">
-        <v>61.943191795026124</v>
+        <v>56.276269303721904</v>
       </c>
       <c r="F3" s="0">
-        <v>0.64826639646350392</v>
+        <v>0.55717475663864435</v>
       </c>
       <c r="G3" s="0">
-        <v>1.810741985508747</v>
+        <v>2.1350521794214123</v>
       </c>
       <c r="H3" s="0">
-        <v>4.3918986327713654</v>
+        <v>4.060070898026269</v>
       </c>
       <c r="I3" s="0">
-        <v>11.286210207817712</v>
+        <v>11.002920887378444</v>
       </c>
       <c r="J3" s="0">
-        <v>4.608671338893422</v>
+        <v>4.3895344364072608</v>
       </c>
       <c r="K3" s="0">
-        <v>2.6708038199781816</v>
+        <v>2.7631765150699215</v>
       </c>
       <c r="L3" s="0">
-        <v>3.6003274614273386</v>
+        <v>3.5060319162816955</v>
       </c>
       <c r="M3" s="0">
-        <v>3.6091451446331941</v>
+        <v>3.8296044289359532</v>
       </c>
       <c r="N3" s="0">
-        <v>3.0751505501584138</v>
+        <v>3.009822587000814</v>
       </c>
       <c r="O3" s="0">
-        <v>3.0051379591974379</v>
+        <v>3.4441373781592137</v>
       </c>
       <c r="P3" s="0">
-        <v>2.5092552998093183</v>
+        <v>2.6152208136249246</v>
       </c>
       <c r="Q3" s="0">
-        <v>2.1464936052106305</v>
+        <v>2.2803227674681681</v>
       </c>
       <c r="R3" s="0">
-        <v>3.3732112717446352</v>
+        <v>3.590156149332298</v>
       </c>
       <c r="S3" s="0">
-        <v>2.0780320798466554</v>
+        <v>1.9927046195689764</v>
       </c>
       <c r="T3" s="0">
-        <v>2.8442985670590679</v>
+        <v>3.020044024647047</v>
       </c>
       <c r="U3" s="0">
-        <v>0.89644064663945322</v>
+        <v>0.89511970232695648</v>
       </c>
       <c r="V3" s="0">
-        <v>0.9358764550439822</v>
+        <v>0.93274279767632406</v>
       </c>
       <c r="W3" s="0">
-        <v>0.69226619019552138</v>
+        <v>0.69310217467735336</v>
       </c>
       <c r="X3" s="0">
-        <v>0.20493712323710009</v>
+        <v>0.22644291856792953</v>
       </c>
       <c r="Y3" s="0">
         <v>0.23571173354711331</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" s="0" t="s">
         <v>1</v>
       </c>
@@ -784,76 +769,76 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>-2.5765007322270557</v>
+        <v>-7.0988077885401148</v>
       </c>
       <c r="D4" s="0">
-        <v>-3.8048715638396997</v>
+        <v>-7.0983677765694786</v>
       </c>
       <c r="E4" s="0">
-        <v>47.375489681376976</v>
+        <v>40.725819242441403</v>
       </c>
       <c r="F4" s="0">
-        <v>0.45666143562275585</v>
+        <v>0.40229757303201485</v>
       </c>
       <c r="G4" s="0">
-        <v>1.7227197001265164</v>
+        <v>1.4532672881397013</v>
       </c>
       <c r="H4" s="0">
-        <v>3.4074691880585846</v>
+        <v>3.2756878352647587</v>
       </c>
       <c r="I4" s="0">
-        <v>13.68925331872132</v>
+        <v>12.851029913116449</v>
       </c>
       <c r="J4" s="0">
-        <v>5</v>
+        <v>4.6490308268226981</v>
       </c>
       <c r="K4" s="0">
-        <v>2.9680346106058586</v>
+        <v>3.0183892412638982</v>
       </c>
       <c r="L4" s="0">
-        <v>4.0805010078897634</v>
+        <v>3.770397652546162</v>
       </c>
       <c r="M4" s="0">
-        <v>3.9847308717425514</v>
+        <v>3.5604553026326329</v>
       </c>
       <c r="N4" s="0">
-        <v>3.2398310409675832</v>
+        <v>1.5382947017664645</v>
       </c>
       <c r="O4" s="0">
-        <v>3.4649482707509622</v>
+        <v>4.1017506483269415</v>
       </c>
       <c r="P4" s="0">
-        <v>2.9279803769446358</v>
+        <v>3.0112614726900464</v>
       </c>
       <c r="Q4" s="0">
-        <v>2.7160768884776103</v>
+        <v>2.838973094345131</v>
       </c>
       <c r="R4" s="0">
-        <v>3.962288142909407</v>
+        <v>4.1282940922001821</v>
       </c>
       <c r="S4" s="0">
-        <v>2.4622392838879961</v>
+        <v>2.3411050793248749</v>
       </c>
       <c r="T4" s="0">
-        <v>3.3855851206319425</v>
+        <v>3.5270083934260059</v>
       </c>
       <c r="U4" s="0">
-        <v>0.94125592753470599</v>
+        <v>0.94336477866728841</v>
       </c>
       <c r="V4" s="0">
-        <v>0.98548438880007727</v>
+        <v>0.98303586609633664</v>
       </c>
       <c r="W4" s="0">
-        <v>0.85906884603635014</v>
+        <v>0.85278164553633851</v>
       </c>
       <c r="X4" s="0">
-        <v>0.27092694704284653</v>
+        <v>0.30246232820655033</v>
       </c>
       <c r="Y4" s="0">
         <v>0.23571173354711331</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" s="0" t="s">
         <v>1</v>
       </c>
@@ -861,76 +846,76 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>-5.3101667584835326</v>
+        <v>-9.1155293751566155</v>
       </c>
       <c r="D5" s="0">
-        <v>-6.9013660779438712</v>
+        <v>-8.8648797560871735</v>
       </c>
       <c r="E5" s="0">
-        <v>64.558581916861385</v>
+        <v>58.720542706425235</v>
       </c>
       <c r="F5" s="0">
-        <v>0.72727546219642614</v>
+        <v>0.7249952104412537</v>
       </c>
       <c r="G5" s="0">
-        <v>2.3812777801461702</v>
+        <v>2.9412518374919721</v>
       </c>
       <c r="H5" s="0">
-        <v>4.9486902872213285</v>
+        <v>4.9929053340945995</v>
       </c>
       <c r="I5" s="0">
-        <v>8.8201382802024302</v>
+        <v>8.6172338883876449</v>
       </c>
       <c r="J5" s="0">
-        <v>4.1371990890810757</v>
+        <v>3.994858507289675</v>
       </c>
       <c r="K5" s="0">
-        <v>2.2445497189112795</v>
+        <v>2.4224201164402768</v>
       </c>
       <c r="L5" s="0">
-        <v>3.1144200669236057</v>
+        <v>3.1216152348072068</v>
       </c>
       <c r="M5" s="0">
-        <v>3.1104628942222616</v>
+        <v>3.2813624654715969</v>
       </c>
       <c r="N5" s="0">
-        <v>2.3971770825547409</v>
+        <v>2.6421734865610143</v>
       </c>
       <c r="O5" s="0">
-        <v>2.6154549182819342</v>
+        <v>2.7223095967364173</v>
       </c>
       <c r="P5" s="0">
-        <v>2.4465480482812483</v>
+        <v>2.4369790533194928</v>
       </c>
       <c r="Q5" s="0">
-        <v>2.0713606818236485</v>
+        <v>2.0601736371841146</v>
       </c>
       <c r="R5" s="0">
-        <v>3.226530330191923</v>
+        <v>3.2742951051865758</v>
       </c>
       <c r="S5" s="0">
-        <v>1.916753830749943</v>
+        <v>1.829344763908249</v>
       </c>
       <c r="T5" s="0">
-        <v>2.7330538326563465</v>
+        <v>2.7667109178315274</v>
       </c>
       <c r="U5" s="0">
-        <v>0.77053293921729005</v>
+        <v>0.77154919263139143</v>
       </c>
       <c r="V5" s="0">
-        <v>0.8398143980938263</v>
+        <v>0.83653851376018207</v>
       </c>
       <c r="W5" s="0">
-        <v>0.57348178129632477</v>
+        <v>0.56994932531555342</v>
       </c>
       <c r="X5" s="0">
-        <v>0.15744986654118256</v>
+        <v>0.16371209276939594</v>
       </c>
       <c r="Y5" s="0">
         <v>0.23571173354711331</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="0" t="s">
         <v>2</v>
       </c>
@@ -938,76 +923,76 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>-8.5485798740429075</v>
+        <v>-5.4256534416546103</v>
       </c>
       <c r="D6" s="0">
-        <v>-7.8186954769860115</v>
+        <v>-6.1252988909726689</v>
       </c>
       <c r="E6" s="0">
-        <v>76.115569507737561</v>
+        <v>82.395763382743425</v>
       </c>
       <c r="F6" s="0">
-        <v>1.0637284526118578</v>
+        <v>1.2524010760382598</v>
       </c>
       <c r="G6" s="0">
-        <v>3.7012699802074374</v>
+        <v>3.3605203219881514</v>
       </c>
       <c r="H6" s="0">
-        <v>6.0933217976940091</v>
+        <v>6.7307862537487537</v>
       </c>
       <c r="I6" s="0">
-        <v>6.0503894393303073</v>
+        <v>5.6112459365503025</v>
       </c>
       <c r="J6" s="0">
-        <v>2.364772527758932</v>
+        <v>2.188689275084541</v>
       </c>
       <c r="K6" s="0">
-        <v>2.0302092899651214</v>
+        <v>1.8827382764360228</v>
       </c>
       <c r="L6" s="0">
-        <v>1.9419944169125303</v>
+        <v>1.7531948422383228</v>
       </c>
       <c r="M6" s="0">
-        <v>2.1530192012362019</v>
+        <v>2.1521715376724111</v>
       </c>
       <c r="N6" s="0">
-        <v>2.090847134109556</v>
+        <v>2.1263487994251453</v>
       </c>
       <c r="O6" s="0">
-        <v>2.1658217118195751</v>
+        <v>2.1638609081904012</v>
       </c>
       <c r="P6" s="0">
-        <v>1.8761890347670953</v>
+        <v>1.8195105822837523</v>
       </c>
       <c r="Q6" s="0">
-        <v>1.5393360456542964</v>
+        <v>1.500958340962717</v>
       </c>
       <c r="R6" s="0">
-        <v>2.3333275224678585</v>
+        <v>1.7975047007915141</v>
       </c>
       <c r="S6" s="0">
-        <v>1.5054315570143899</v>
+        <v>1.541061884521151</v>
       </c>
       <c r="T6" s="0">
-        <v>1.97146598328208</v>
+        <v>1.6603979348658058</v>
       </c>
       <c r="U6" s="0">
-        <v>0.56268936367670208</v>
+        <v>0.55460607953434693</v>
       </c>
       <c r="V6" s="0">
-        <v>0.6502012509918863</v>
+        <v>0.64592956314178585</v>
       </c>
       <c r="W6" s="0">
-        <v>0.37607084722408091</v>
+        <v>0.35524338065101529</v>
       </c>
       <c r="X6" s="0">
-        <v>0.040314128773576173</v>
+        <v>0.055756942754893526</v>
       </c>
       <c r="Y6" s="0">
         <v>0.23571173354711331</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" s="0" t="s">
         <v>2</v>
       </c>
@@ -1015,76 +1000,76 @@
         <v>9</v>
       </c>
       <c r="C7" s="0">
-        <v>-6.3772198878785193</v>
+        <v>-2.2829037278246589</v>
       </c>
       <c r="D7" s="0">
-        <v>-7.1241338228082833</v>
+        <v>-4.6356745171806635</v>
       </c>
       <c r="E7" s="0">
-        <v>51.26140278009035</v>
+        <v>58.251562748310889</v>
       </c>
       <c r="F7" s="0">
-        <v>0.60674509297341872</v>
+        <v>0.61049017437337472</v>
       </c>
       <c r="G7" s="0">
-        <v>1.8198975576403747</v>
+        <v>1.6520715554956062</v>
       </c>
       <c r="H7" s="0">
-        <v>4.2944577880489368</v>
+        <v>4.228667787795132</v>
       </c>
       <c r="I7" s="0">
-        <v>10.517490430560629</v>
+        <v>10.465388017775483</v>
       </c>
       <c r="J7" s="0">
-        <v>3.9581710288706606</v>
+        <v>4.1287548074654721</v>
       </c>
       <c r="K7" s="0">
-        <v>2.8901025888258571</v>
+        <v>2.758219547345699</v>
       </c>
       <c r="L7" s="0">
-        <v>3.3218757092161067</v>
+        <v>3.3312401648869954</v>
       </c>
       <c r="M7" s="0">
-        <v>3.9149568210124843</v>
+        <v>3.9404560946225091</v>
       </c>
       <c r="N7" s="0">
-        <v>3.450985516073886</v>
+        <v>3.2316942259320962</v>
       </c>
       <c r="O7" s="0">
-        <v>3.4846402687314999</v>
+        <v>3.4582496123785496</v>
       </c>
       <c r="P7" s="0">
-        <v>2.601772396032449</v>
+        <v>2.6530800084833936</v>
       </c>
       <c r="Q7" s="0">
-        <v>2.2628828960183851</v>
+        <v>2.3300900591311646</v>
       </c>
       <c r="R7" s="0">
-        <v>3.574492909694881</v>
+        <v>3.5376054459958071</v>
       </c>
       <c r="S7" s="0">
-        <v>2.0699969550059567</v>
+        <v>2.2023638102345036</v>
       </c>
       <c r="T7" s="0">
-        <v>3.0181062997856847</v>
+        <v>3.0080324909096543</v>
       </c>
       <c r="U7" s="0">
-        <v>0.90158334741169344</v>
+        <v>0.88318398615720983</v>
       </c>
       <c r="V7" s="0">
-        <v>0.90841098611064308</v>
+        <v>0.91143754895911311</v>
       </c>
       <c r="W7" s="0">
-        <v>0.68496878593128507</v>
+        <v>0.68549928160878848</v>
       </c>
       <c r="X7" s="0">
-        <v>0.20817752525871697</v>
+        <v>0.19218256213792426</v>
       </c>
       <c r="Y7" s="0">
         <v>0.23571173354711331</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" s="0" t="s">
         <v>2</v>
       </c>
@@ -1092,76 +1077,76 @@
         <v>10</v>
       </c>
       <c r="C8" s="0">
-        <v>-6.0382867568486684</v>
+        <v>-1.6799527745454543</v>
       </c>
       <c r="D8" s="0">
-        <v>-6.5129714901912914</v>
+        <v>-3.2618109241522348</v>
       </c>
       <c r="E8" s="0">
-        <v>40.359746677123141</v>
+        <v>42.561159165676656</v>
       </c>
       <c r="F8" s="0">
-        <v>0.42506162981666107</v>
+        <v>0.42608812538636798</v>
       </c>
       <c r="G8" s="0">
-        <v>1.4661518813452557</v>
+        <v>1.3977784009543981</v>
       </c>
       <c r="H8" s="0">
-        <v>3.4682183225852263</v>
+        <v>3.3738519076660829</v>
       </c>
       <c r="I8" s="0">
-        <v>12.03598930935105</v>
+        <v>12.104287877743539</v>
       </c>
       <c r="J8" s="0">
-        <v>4.1648031588382786</v>
+        <v>4.5327240209635695</v>
       </c>
       <c r="K8" s="0">
-        <v>2.9484716317121285</v>
+        <v>2.9085473771283366</v>
       </c>
       <c r="L8" s="0">
-        <v>3.4617709445197717</v>
+        <v>3.661451088994732</v>
       </c>
       <c r="M8" s="0">
-        <v>3.8307356378113382</v>
+        <v>3.8333142723690998</v>
       </c>
       <c r="N8" s="0">
-        <v>1.4533504735832592</v>
+        <v>1.7623678220112398</v>
       </c>
       <c r="O8" s="0">
-        <v>3.8113180359322367</v>
+        <v>3.8267200343308083</v>
       </c>
       <c r="P8" s="0">
-        <v>2.9820199420242166</v>
+        <v>3.1010535902591347</v>
       </c>
       <c r="Q8" s="0">
-        <v>2.7956340793634826</v>
+        <v>2.9728260850511794</v>
       </c>
       <c r="R8" s="0">
-        <v>4.0905318878651498</v>
+        <v>4.1414402014125953</v>
       </c>
       <c r="S8" s="0">
-        <v>2.366570101665662</v>
+        <v>2.6128814137625387</v>
       </c>
       <c r="T8" s="0">
-        <v>3.4943762721235014</v>
+        <v>3.5742629058010467</v>
       </c>
       <c r="U8" s="0">
-        <v>0.93748530758554904</v>
+        <v>0.92678861703500937</v>
       </c>
       <c r="V8" s="0">
-        <v>0.95337751966252382</v>
+        <v>0.96069931422446331</v>
       </c>
       <c r="W8" s="0">
-        <v>0.82497581497185257</v>
+        <v>0.82645053025151838</v>
       </c>
       <c r="X8" s="0">
-        <v>0.28214594634898915</v>
+        <v>0.27557459216999963</v>
       </c>
       <c r="Y8" s="0">
         <v>0.23571173354711331</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" s="0" t="s">
         <v>2</v>
       </c>
@@ -1169,380 +1154,72 @@
         <v>11</v>
       </c>
       <c r="C9" s="0">
-        <v>-8.025338879250711</v>
+        <v>-4.4471840550030661</v>
       </c>
       <c r="D9" s="0">
-        <v>-8.4549570367357632</v>
+        <v>-6.4276712845226314</v>
       </c>
       <c r="E9" s="0">
-        <v>59.087109840062261</v>
+        <v>62.695226982427926</v>
       </c>
       <c r="F9" s="0">
-        <v>0.77350611996255514</v>
+        <v>0.74201775806471393</v>
       </c>
       <c r="G9" s="0">
-        <v>2.716537229351538</v>
+        <v>2.2406447635894335</v>
       </c>
       <c r="H9" s="0">
-        <v>5.1631338718877746</v>
+        <v>5.0158698967966151</v>
       </c>
       <c r="I9" s="0">
-        <v>8.2342659036933163</v>
+        <v>8.0959689444999619</v>
       </c>
       <c r="J9" s="0">
-        <v>3.6560280516966834</v>
+        <v>3.6704823493522802</v>
       </c>
       <c r="K9" s="0">
-        <v>2.2935280482498976</v>
+        <v>2.3209325211337659</v>
       </c>
       <c r="L9" s="0">
-        <v>2.8615516141641204</v>
+        <v>2.869428061557715</v>
       </c>
       <c r="M9" s="0">
-        <v>3.4292117573950893</v>
+        <v>3.4050393814484843</v>
       </c>
       <c r="N9" s="0">
-        <v>2.8938529170377203</v>
+        <v>2.7230306232554295</v>
       </c>
       <c r="O9" s="0">
-        <v>2.8330499803292888</v>
+        <v>2.8230520740093228</v>
       </c>
       <c r="P9" s="0">
-        <v>2.4443287998607275</v>
+        <v>2.4513979278147717</v>
       </c>
       <c r="Q9" s="0">
-        <v>2.0687595282970013</v>
+        <v>2.0770590965654714</v>
       </c>
       <c r="R9" s="0">
-        <v>3.223107946956616</v>
+        <v>3.225888985923258</v>
       </c>
       <c r="S9" s="0">
-        <v>1.8561171041386388</v>
+        <v>1.9619583296935392</v>
       </c>
       <c r="T9" s="0">
-        <v>2.7440286318500084</v>
+        <v>2.7398828694336381</v>
       </c>
       <c r="U9" s="0">
-        <v>0.77316881395976445</v>
+        <v>0.75944126355599784</v>
       </c>
       <c r="V9" s="0">
-        <v>0.81599283138694234</v>
+        <v>0.81779930659885325</v>
       </c>
       <c r="W9" s="0">
-        <v>0.57099320667547016</v>
+        <v>0.56577424903760243</v>
       </c>
       <c r="X9" s="0">
-        <v>0.16026574709830702</v>
+        <v>0.14366901585684408</v>
       </c>
       <c r="Y9" s="0">
-        <v>0.23571173354711331</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="0">
-        <v>-7.564351881118176</v>
-      </c>
-      <c r="D10" s="0">
-        <v>-6.9711547619170871</v>
-      </c>
-      <c r="E10" s="0">
-        <v>82.124213112312319</v>
-      </c>
-      <c r="F10" s="0">
-        <v>1.1960303941002033</v>
-      </c>
-      <c r="G10" s="0">
-        <v>4.138158688078474</v>
-      </c>
-      <c r="H10" s="0">
-        <v>6.3527646303669369</v>
-      </c>
-      <c r="I10" s="0">
-        <v>4.9386593569440791</v>
-      </c>
-      <c r="J10" s="0">
-        <v>1.8666298694153691</v>
-      </c>
-      <c r="K10" s="0">
-        <v>1.777129930159866</v>
-      </c>
-      <c r="L10" s="0">
-        <v>1.5347929672620837</v>
-      </c>
-      <c r="M10" s="0">
-        <v>1</v>
-      </c>
-      <c r="N10" s="0">
-        <v>2.1747065015762748</v>
-      </c>
-      <c r="O10" s="0">
-        <v>1.1520978677396283</v>
-      </c>
-      <c r="P10" s="0">
-        <v>2.1618597945041653</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>1.7715190590547558</v>
-      </c>
-      <c r="R10" s="0">
-        <v>2.2687928171466245</v>
-      </c>
-      <c r="S10" s="0">
-        <v>1.6533167399860276</v>
-      </c>
-      <c r="T10" s="0">
-        <v>2.0684561664870129</v>
-      </c>
-      <c r="U10" s="0">
-        <v>0.39207329527565199</v>
-      </c>
-      <c r="V10" s="0">
-        <v>0.51894466460790079</v>
-      </c>
-      <c r="W10" s="0">
-        <v>0.30530502113840891</v>
-      </c>
-      <c r="X10" s="0">
-        <v>0.043271164584995102</v>
-      </c>
-      <c r="Y10" s="0">
-        <v>0.23571173354711331</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="0">
-        <v>-4.4845321985318929</v>
-      </c>
-      <c r="D11" s="0">
-        <v>-5.7568088704627813</v>
-      </c>
-      <c r="E11" s="0">
-        <v>53.527513705250733</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.72358724980250411</v>
-      </c>
-      <c r="G11" s="0">
-        <v>2.5099908196570384</v>
-      </c>
-      <c r="H11" s="0">
-        <v>4.6978362685580688</v>
-      </c>
-      <c r="I11" s="0">
-        <v>7.9216459445005336</v>
-      </c>
-      <c r="J11" s="0">
-        <v>3.2044801729379948</v>
-      </c>
-      <c r="K11" s="0">
-        <v>2.4818268028528108</v>
-      </c>
-      <c r="L11" s="0">
-        <v>2.6825595293100815</v>
-      </c>
-      <c r="M11" s="0">
-        <v>3.4493642042760921</v>
-      </c>
-      <c r="N11" s="0">
-        <v>2.8706571060312456</v>
-      </c>
-      <c r="O11" s="0">
-        <v>2.7495647569846202</v>
-      </c>
-      <c r="P11" s="0">
-        <v>2.0824257258184238</v>
-      </c>
-      <c r="Q11" s="0">
-        <v>1.7002035501512305</v>
-      </c>
-      <c r="R11" s="0">
-        <v>3.1223838092744765</v>
-      </c>
-      <c r="S11" s="0">
-        <v>1.8920279421652964</v>
-      </c>
-      <c r="T11" s="0">
-        <v>2.5251834414481942</v>
-      </c>
-      <c r="U11" s="0">
-        <v>0.58199595447901953</v>
-      </c>
-      <c r="V11" s="0">
-        <v>0.69578034963010427</v>
-      </c>
-      <c r="W11" s="0">
-        <v>0.52040642352054112</v>
-      </c>
-      <c r="X11" s="0">
-        <v>0.16455493890718848</v>
-      </c>
-      <c r="Y11" s="0">
-        <v>0.23571173354711331</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="0">
-        <v>-3.5780616939775287</v>
-      </c>
-      <c r="D12" s="0">
-        <v>-5.1145887673906945</v>
-      </c>
-      <c r="E12" s="0">
-        <v>50.84355739772235</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.64976254149665214</v>
-      </c>
-      <c r="G12" s="0">
-        <v>2.0637111280240807</v>
-      </c>
-      <c r="H12" s="0">
-        <v>4.6997471127597121</v>
-      </c>
-      <c r="I12" s="0">
-        <v>7.7819427162756458</v>
-      </c>
-      <c r="J12" s="0">
-        <v>2.7628336649794223</v>
-      </c>
-      <c r="K12" s="0">
-        <v>2.2840267912397936</v>
-      </c>
-      <c r="L12" s="0">
-        <v>2.3192994672923009</v>
-      </c>
-      <c r="M12" s="0">
-        <v>3.0752239060350433</v>
-      </c>
-      <c r="N12" s="0">
-        <v>2.6288763433282711</v>
-      </c>
-      <c r="O12" s="0">
-        <v>2.3189211563516175</v>
-      </c>
-      <c r="P12" s="0">
-        <v>2.3281615246451031</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>1.9383010123564777</v>
-      </c>
-      <c r="R12" s="0">
-        <v>3.370683727581441</v>
-      </c>
-      <c r="S12" s="0">
-        <v>2.0687372146506888</v>
-      </c>
-      <c r="T12" s="0">
-        <v>2.7795867043089659</v>
-      </c>
-      <c r="U12" s="0">
-        <v>0.59611031034921047</v>
-      </c>
-      <c r="V12" s="0">
-        <v>0.72210352811706868</v>
-      </c>
-      <c r="W12" s="0">
-        <v>0.56556987333239761</v>
-      </c>
-      <c r="X12" s="0">
-        <v>0.21437954274361659</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>0.23571173354711331</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="0">
-        <v>-6.2663155656196254</v>
-      </c>
-      <c r="D13" s="0">
-        <v>-7.1685294531323578</v>
-      </c>
-      <c r="E13" s="0">
-        <v>47.810108956936681</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.81921040570368176</v>
-      </c>
-      <c r="G13" s="0">
-        <v>3.1661255916720972</v>
-      </c>
-      <c r="H13" s="0">
-        <v>5.3793746239889515</v>
-      </c>
-      <c r="I13" s="0">
-        <v>6.6286027896804116</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2.9894030353725842</v>
-      </c>
-      <c r="K13" s="0">
-        <v>2.0604954011136067</v>
-      </c>
-      <c r="L13" s="0">
-        <v>2.3721778380135938</v>
-      </c>
-      <c r="M13" s="0">
-        <v>3.0399559020489351</v>
-      </c>
-      <c r="N13" s="0">
-        <v>2.2751197741667522</v>
-      </c>
-      <c r="O13" s="0">
-        <v>2.0972434004067653</v>
-      </c>
-      <c r="P13" s="0">
-        <v>2.0236883026665229</v>
-      </c>
-      <c r="Q13" s="0">
-        <v>1.6508777877957428</v>
-      </c>
-      <c r="R13" s="0">
-        <v>3.0346219061403894</v>
-      </c>
-      <c r="S13" s="0">
-        <v>1.8150348904287024</v>
-      </c>
-      <c r="T13" s="0">
-        <v>2.466273895491621</v>
-      </c>
-      <c r="U13" s="0">
-        <v>0.54069547484599312</v>
-      </c>
-      <c r="V13" s="0">
-        <v>0.65732445104704063</v>
-      </c>
-      <c r="W13" s="0">
-        <v>0.48557333456103247</v>
-      </c>
-      <c r="X13" s="0">
-        <v>0.11906293045249729</v>
-      </c>
-      <c r="Y13" s="0">
         <v>0.23571173354711331</v>
       </c>
     </row>

--- a/Random/Matlab2025Files/SS/all_algorithm_metrics.xlsx
+++ b/Random/Matlab2025Files/SS/all_algorithm_metrics.xlsx
@@ -20,7 +20,637 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="245">
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>mband_processed_output</t>
+  </si>
+  <si>
+    <t>python_mband_processed_output</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>SegSNR</t>
+  </si>
+  <si>
+    <t>WSS</t>
+  </si>
+  <si>
+    <t>LLR</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>fwSNRseg</t>
+  </si>
+  <si>
+    <t>SIGv</t>
+  </si>
+  <si>
+    <t>BAKv</t>
+  </si>
+  <si>
+    <t>OVLv</t>
+  </si>
+  <si>
+    <t>SIGm</t>
+  </si>
+  <si>
+    <t>BAKm</t>
+  </si>
+  <si>
+    <t>OVLm</t>
+  </si>
+  <si>
+    <t>PESQ_1</t>
+  </si>
+  <si>
+    <t>PESQ_2</t>
+  </si>
+  <si>
+    <t>Csig</t>
+  </si>
+  <si>
+    <t>Cbak</t>
+  </si>
+  <si>
+    <t>Covl</t>
+  </si>
+  <si>
+    <t>NCM</t>
+  </si>
+  <si>
+    <t>CSh</t>
+  </si>
+  <si>
+    <t>CSm</t>
+  </si>
+  <si>
+    <t>CSl</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>mband_processed_output</t>
+  </si>
+  <si>
+    <t>python_mband_processed_output</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>SegSNR</t>
+  </si>
+  <si>
+    <t>WSS</t>
+  </si>
+  <si>
+    <t>LLR</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>fwSNRseg</t>
+  </si>
+  <si>
+    <t>SIGv</t>
+  </si>
+  <si>
+    <t>BAKv</t>
+  </si>
+  <si>
+    <t>OVLv</t>
+  </si>
+  <si>
+    <t>SIGm</t>
+  </si>
+  <si>
+    <t>BAKm</t>
+  </si>
+  <si>
+    <t>OVLm</t>
+  </si>
+  <si>
+    <t>PESQ_1</t>
+  </si>
+  <si>
+    <t>PESQ_2</t>
+  </si>
+  <si>
+    <t>Csig</t>
+  </si>
+  <si>
+    <t>Cbak</t>
+  </si>
+  <si>
+    <t>Covl</t>
+  </si>
+  <si>
+    <t>NCM</t>
+  </si>
+  <si>
+    <t>CSh</t>
+  </si>
+  <si>
+    <t>CSm</t>
+  </si>
+  <si>
+    <t>CSl</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>mband_processed_output</t>
+  </si>
+  <si>
+    <t>python_mband_processed_output</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>SegSNR</t>
+  </si>
+  <si>
+    <t>WSS</t>
+  </si>
+  <si>
+    <t>LLR</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>fwSNRseg</t>
+  </si>
+  <si>
+    <t>SIGv</t>
+  </si>
+  <si>
+    <t>BAKv</t>
+  </si>
+  <si>
+    <t>OVLv</t>
+  </si>
+  <si>
+    <t>SIGm</t>
+  </si>
+  <si>
+    <t>BAKm</t>
+  </si>
+  <si>
+    <t>OVLm</t>
+  </si>
+  <si>
+    <t>PESQ_1</t>
+  </si>
+  <si>
+    <t>PESQ_2</t>
+  </si>
+  <si>
+    <t>Csig</t>
+  </si>
+  <si>
+    <t>Cbak</t>
+  </si>
+  <si>
+    <t>Covl</t>
+  </si>
+  <si>
+    <t>NCM</t>
+  </si>
+  <si>
+    <t>CSh</t>
+  </si>
+  <si>
+    <t>CSm</t>
+  </si>
+  <si>
+    <t>CSl</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>mband_processed_output</t>
+  </si>
+  <si>
+    <t>python_mband_processed_output</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>SegSNR</t>
+  </si>
+  <si>
+    <t>WSS</t>
+  </si>
+  <si>
+    <t>LLR</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>fwSNRseg</t>
+  </si>
+  <si>
+    <t>SIGv</t>
+  </si>
+  <si>
+    <t>BAKv</t>
+  </si>
+  <si>
+    <t>OVLv</t>
+  </si>
+  <si>
+    <t>SIGm</t>
+  </si>
+  <si>
+    <t>BAKm</t>
+  </si>
+  <si>
+    <t>OVLm</t>
+  </si>
+  <si>
+    <t>PESQ_1</t>
+  </si>
+  <si>
+    <t>PESQ_2</t>
+  </si>
+  <si>
+    <t>Csig</t>
+  </si>
+  <si>
+    <t>Cbak</t>
+  </si>
+  <si>
+    <t>Covl</t>
+  </si>
+  <si>
+    <t>NCM</t>
+  </si>
+  <si>
+    <t>CSh</t>
+  </si>
+  <si>
+    <t>CSm</t>
+  </si>
+  <si>
+    <t>CSl</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>mband_processed_output</t>
+  </si>
+  <si>
+    <t>python_mband_processed_output</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>SegSNR</t>
+  </si>
+  <si>
+    <t>WSS</t>
+  </si>
+  <si>
+    <t>LLR</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>fwSNRseg</t>
+  </si>
+  <si>
+    <t>SIGv</t>
+  </si>
+  <si>
+    <t>BAKv</t>
+  </si>
+  <si>
+    <t>OVLv</t>
+  </si>
+  <si>
+    <t>SIGm</t>
+  </si>
+  <si>
+    <t>BAKm</t>
+  </si>
+  <si>
+    <t>OVLm</t>
+  </si>
+  <si>
+    <t>PESQ_1</t>
+  </si>
+  <si>
+    <t>PESQ_2</t>
+  </si>
+  <si>
+    <t>Csig</t>
+  </si>
+  <si>
+    <t>Cbak</t>
+  </si>
+  <si>
+    <t>Covl</t>
+  </si>
+  <si>
+    <t>NCM</t>
+  </si>
+  <si>
+    <t>CSh</t>
+  </si>
+  <si>
+    <t>CSm</t>
+  </si>
+  <si>
+    <t>CSl</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>mband_processed_output</t>
+  </si>
+  <si>
+    <t>python_mband_processed_output</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn0.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn10.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn15.wav</t>
+  </si>
+  <si>
+    <t>python_mband_sp21_station_sn5.wav</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>SegSNR</t>
+  </si>
+  <si>
+    <t>WSS</t>
+  </si>
+  <si>
+    <t>LLR</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>fwSNRseg</t>
+  </si>
+  <si>
+    <t>SIGv</t>
+  </si>
+  <si>
+    <t>BAKv</t>
+  </si>
+  <si>
+    <t>OVLv</t>
+  </si>
+  <si>
+    <t>SIGm</t>
+  </si>
+  <si>
+    <t>BAKm</t>
+  </si>
+  <si>
+    <t>OVLm</t>
+  </si>
+  <si>
+    <t>PESQ_1</t>
+  </si>
+  <si>
+    <t>PESQ_2</t>
+  </si>
+  <si>
+    <t>Csig</t>
+  </si>
+  <si>
+    <t>Cbak</t>
+  </si>
+  <si>
+    <t>Covl</t>
+  </si>
+  <si>
+    <t>NCM</t>
+  </si>
+  <si>
+    <t>CSh</t>
+  </si>
+  <si>
+    <t>CSm</t>
+  </si>
+  <si>
+    <t>CSl</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
   <si>
     <t>Algorithm</t>
   </si>
@@ -532,153 +1162,153 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="C2" s="0">
-        <v>-10.206962587786265</v>
+        <v>-8.5485798740429075</v>
       </c>
       <c r="D2" s="0">
-        <v>-8.7632364591021208</v>
+        <v>-7.8186954769860115</v>
       </c>
       <c r="E2" s="0">
-        <v>80.383830439822262</v>
+        <v>76.115569507737561</v>
       </c>
       <c r="F2" s="0">
-        <v>1.0774613457300257</v>
+        <v>1.0637284526118578</v>
       </c>
       <c r="G2" s="0">
-        <v>4.3070076111146811</v>
+        <v>3.7012699802074374</v>
       </c>
       <c r="H2" s="0">
-        <v>6.0293571045889687</v>
+        <v>6.0933217976940091</v>
       </c>
       <c r="I2" s="0">
-        <v>6.1429092773455816</v>
+        <v>6.0503894393303073</v>
       </c>
       <c r="J2" s="0">
-        <v>2.4296842457941334</v>
+        <v>2.364772527758932</v>
       </c>
       <c r="K2" s="0">
-        <v>2.0364047570927508</v>
+        <v>2.0302092899651214</v>
       </c>
       <c r="L2" s="0">
-        <v>1.9628522693905692</v>
+        <v>1.9419944169125303</v>
       </c>
       <c r="M2" s="0">
-        <v>1.9796827468556308</v>
+        <v>2.1530192012362019</v>
       </c>
       <c r="N2" s="0">
-        <v>2.1781637527108497</v>
+        <v>2.090847134109556</v>
       </c>
       <c r="O2" s="0">
-        <v>1.9535190493745405</v>
+        <v>2.1658217118195751</v>
       </c>
       <c r="P2" s="0">
-        <v>1.8771836550370669</v>
+        <v>1.8761890347670953</v>
       </c>
       <c r="Q2" s="0">
-        <v>1.5400311126230202</v>
+        <v>1.5393360456542964</v>
       </c>
       <c r="R2" s="0">
-        <v>2.2692155783666998</v>
+        <v>2.3333275224678585</v>
       </c>
       <c r="S2" s="0">
-        <v>1.4165230771055284</v>
+        <v>1.5054315570143899</v>
       </c>
       <c r="T2" s="0">
-        <v>1.9293040407605118</v>
+        <v>1.97146598328208</v>
       </c>
       <c r="U2" s="0">
-        <v>0.55779137485575192</v>
+        <v>0.56268936636745548</v>
       </c>
       <c r="V2" s="0">
-        <v>0.63294303821523279</v>
+        <v>0.6502012509918863</v>
       </c>
       <c r="W2" s="0">
-        <v>0.36602415960328855</v>
+        <v>0.37607084722408091</v>
       </c>
       <c r="X2" s="0">
-        <v>0.047820163880449199</v>
+        <v>0.040314128773576173</v>
       </c>
       <c r="Y2" s="0">
         <v>0.23571173354711331</v>
@@ -686,76 +1316,76 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="C3" s="0">
-        <v>-7.4920028083323125</v>
+        <v>-6.3772198878785193</v>
       </c>
       <c r="D3" s="0">
-        <v>-7.8958260986933926</v>
+        <v>-7.1241338228082833</v>
       </c>
       <c r="E3" s="0">
-        <v>56.276269303721904</v>
+        <v>51.26140278009035</v>
       </c>
       <c r="F3" s="0">
-        <v>0.55717475663864435</v>
+        <v>0.60674509297341872</v>
       </c>
       <c r="G3" s="0">
-        <v>2.1350521794214123</v>
+        <v>1.8198975576403746</v>
       </c>
       <c r="H3" s="0">
-        <v>4.060070898026269</v>
+        <v>4.2944577880489367</v>
       </c>
       <c r="I3" s="0">
-        <v>11.002920887378444</v>
+        <v>10.517490430560629</v>
       </c>
       <c r="J3" s="0">
-        <v>4.3895344364072608</v>
+        <v>3.9581710288706606</v>
       </c>
       <c r="K3" s="0">
-        <v>2.7631765150699215</v>
+        <v>2.8901025888258571</v>
       </c>
       <c r="L3" s="0">
-        <v>3.5060319162816955</v>
+        <v>3.3218757092161066</v>
       </c>
       <c r="M3" s="0">
-        <v>3.8296044289359532</v>
+        <v>3.9149568210124843</v>
       </c>
       <c r="N3" s="0">
-        <v>3.009822587000814</v>
+        <v>3.450985516073886</v>
       </c>
       <c r="O3" s="0">
-        <v>3.4441373781592137</v>
+        <v>3.4846402687314999</v>
       </c>
       <c r="P3" s="0">
-        <v>2.6152208136249246</v>
+        <v>2.601772396032449</v>
       </c>
       <c r="Q3" s="0">
-        <v>2.2803227674681681</v>
+        <v>2.2628828960183851</v>
       </c>
       <c r="R3" s="0">
-        <v>3.590156149332298</v>
+        <v>3.574492909694881</v>
       </c>
       <c r="S3" s="0">
-        <v>1.9927046195689764</v>
+        <v>2.0699969550059567</v>
       </c>
       <c r="T3" s="0">
-        <v>3.020044024647047</v>
+        <v>3.0181062997856847</v>
       </c>
       <c r="U3" s="0">
-        <v>0.89511970232695648</v>
+        <v>0.90158334739209689</v>
       </c>
       <c r="V3" s="0">
-        <v>0.93274279767632406</v>
+        <v>0.90841098611064308</v>
       </c>
       <c r="W3" s="0">
-        <v>0.69310217467735336</v>
+        <v>0.68496878593128507</v>
       </c>
       <c r="X3" s="0">
-        <v>0.22644291856792953</v>
+        <v>0.20817752525871697</v>
       </c>
       <c r="Y3" s="0">
         <v>0.23571173354711331</v>
@@ -763,76 +1393,76 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="C4" s="0">
-        <v>-7.0988077885401148</v>
+        <v>-6.0382867568486684</v>
       </c>
       <c r="D4" s="0">
-        <v>-7.0983677765694786</v>
+        <v>-6.5129714901912914</v>
       </c>
       <c r="E4" s="0">
-        <v>40.725819242441403</v>
+        <v>40.359746677123141</v>
       </c>
       <c r="F4" s="0">
-        <v>0.40229757303201485</v>
+        <v>0.42506162981666107</v>
       </c>
       <c r="G4" s="0">
-        <v>1.4532672881397013</v>
+        <v>1.4661518813452556</v>
       </c>
       <c r="H4" s="0">
-        <v>3.2756878352647587</v>
+        <v>3.4682183225852263</v>
       </c>
       <c r="I4" s="0">
-        <v>12.851029913116449</v>
+        <v>12.03598930935105</v>
       </c>
       <c r="J4" s="0">
-        <v>4.6490308268226981</v>
+        <v>4.1648031588382786</v>
       </c>
       <c r="K4" s="0">
-        <v>3.0183892412638982</v>
+        <v>2.9484716317121284</v>
       </c>
       <c r="L4" s="0">
-        <v>3.770397652546162</v>
+        <v>3.4617709445197717</v>
       </c>
       <c r="M4" s="0">
-        <v>3.5604553026326329</v>
+        <v>3.8307356378113382</v>
       </c>
       <c r="N4" s="0">
-        <v>1.5382947017664645</v>
+        <v>1.4533504735832592</v>
       </c>
       <c r="O4" s="0">
-        <v>4.1017506483269415</v>
+        <v>3.8113180359322367</v>
       </c>
       <c r="P4" s="0">
-        <v>3.0112614726900464</v>
+        <v>2.9820199420242166</v>
       </c>
       <c r="Q4" s="0">
-        <v>2.838973094345131</v>
+        <v>2.7956340793634826</v>
       </c>
       <c r="R4" s="0">
-        <v>4.1282940922001821</v>
+        <v>4.0905318878651498</v>
       </c>
       <c r="S4" s="0">
-        <v>2.3411050793248749</v>
+        <v>2.366570101665662</v>
       </c>
       <c r="T4" s="0">
-        <v>3.5270083934260059</v>
+        <v>3.4943762721235014</v>
       </c>
       <c r="U4" s="0">
-        <v>0.94336477866728841</v>
+        <v>0.93748530750150627</v>
       </c>
       <c r="V4" s="0">
-        <v>0.98303586609633664</v>
+        <v>0.95337751966252382</v>
       </c>
       <c r="W4" s="0">
-        <v>0.85278164553633851</v>
+        <v>0.82497581497185257</v>
       </c>
       <c r="X4" s="0">
-        <v>0.30246232820655033</v>
+        <v>0.28214594634898915</v>
       </c>
       <c r="Y4" s="0">
         <v>0.23571173354711331</v>
@@ -840,76 +1470,76 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="C5" s="0">
-        <v>-9.1155293751566155</v>
+        <v>-8.025338879250711</v>
       </c>
       <c r="D5" s="0">
-        <v>-8.8648797560871735</v>
+        <v>-8.4549570367357632</v>
       </c>
       <c r="E5" s="0">
-        <v>58.720542706425235</v>
+        <v>59.087109840062261</v>
       </c>
       <c r="F5" s="0">
-        <v>0.7249952104412537</v>
+        <v>0.77350611996255514</v>
       </c>
       <c r="G5" s="0">
-        <v>2.9412518374919721</v>
+        <v>2.716537229351538</v>
       </c>
       <c r="H5" s="0">
-        <v>4.9929053340945995</v>
+        <v>5.1631338718877746</v>
       </c>
       <c r="I5" s="0">
-        <v>8.6172338883876449</v>
+        <v>8.2342659036933163</v>
       </c>
       <c r="J5" s="0">
-        <v>3.994858507289675</v>
+        <v>3.6560280516966834</v>
       </c>
       <c r="K5" s="0">
-        <v>2.4224201164402768</v>
+        <v>2.2935280482498976</v>
       </c>
       <c r="L5" s="0">
-        <v>3.1216152348072068</v>
+        <v>2.8615516141641204</v>
       </c>
       <c r="M5" s="0">
-        <v>3.2813624654715969</v>
+        <v>3.4292117573950893</v>
       </c>
       <c r="N5" s="0">
-        <v>2.6421734865610143</v>
+        <v>2.8938529170377203</v>
       </c>
       <c r="O5" s="0">
-        <v>2.7223095967364173</v>
+        <v>2.8330499803292888</v>
       </c>
       <c r="P5" s="0">
-        <v>2.4369790533194928</v>
+        <v>2.4443287998607275</v>
       </c>
       <c r="Q5" s="0">
-        <v>2.0601736371841146</v>
+        <v>2.0687595282970013</v>
       </c>
       <c r="R5" s="0">
-        <v>3.2742951051865758</v>
+        <v>3.223107946956616</v>
       </c>
       <c r="S5" s="0">
-        <v>1.829344763908249</v>
+        <v>1.8561171041386388</v>
       </c>
       <c r="T5" s="0">
-        <v>2.7667109178315274</v>
+        <v>2.7440286318500084</v>
       </c>
       <c r="U5" s="0">
-        <v>0.77154919263139143</v>
+        <v>0.77316881333802945</v>
       </c>
       <c r="V5" s="0">
-        <v>0.83653851376018207</v>
+        <v>0.81599283138694234</v>
       </c>
       <c r="W5" s="0">
-        <v>0.56994932531555342</v>
+        <v>0.57099320667547016</v>
       </c>
       <c r="X5" s="0">
-        <v>0.16371209276939594</v>
+        <v>0.16026574709830702</v>
       </c>
       <c r="Y5" s="0">
         <v>0.23571173354711331</v>
@@ -917,10 +1547,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="C6" s="0">
         <v>-5.4256534416546103</v>
@@ -994,10 +1624,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="C7" s="0">
         <v>-2.2829037278246589</v>
@@ -1071,10 +1701,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="C8" s="0">
         <v>-1.6799527745454543</v>
@@ -1148,10 +1778,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="C9" s="0">
         <v>-4.4471840550030661</v>

--- a/Random/Matlab2025Files/SS/all_algorithm_metrics.xlsx
+++ b/Random/Matlab2025Files/SS/all_algorithm_metrics.xlsx
@@ -13,21 +13,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="73" uniqueCount="55">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
+    <t>mband_python_c_station_mel</t>
+  </si>
+  <si>
+    <t>mband_python_c_station_linear</t>
+  </si>
+  <si>
+    <t>mband_python_c_babble_mel</t>
+  </si>
+  <si>
     <t>mband_python_c_babble_linear</t>
   </si>
   <si>
+    <t>mband_python_c_car_mel</t>
+  </si>
+  <si>
+    <t>mband_python_c_car_linear</t>
+  </si>
+  <si>
     <t>File</t>
   </si>
   <si>
+    <t>sp21_station_sn10_B40_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_station_sn10_B4_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_station_sn5_B40_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_station_sn5_B4_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_station_sn10_B40_linear.wav</t>
+  </si>
+  <si>
+    <t>sp21_station_sn10_B4_linear.wav</t>
+  </si>
+  <si>
+    <t>sp21_station_sn5_B40_linear.wav</t>
+  </si>
+  <si>
+    <t>sp21_station_sn5_B4_linear.wav</t>
+  </si>
+  <si>
+    <t>sp21_babble_sn10_B40_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_babble_sn10_B4_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_babble_sn5_B40_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_babble_sn5_B4_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_babble_sn10_B40_linear.wav</t>
+  </si>
+  <si>
     <t>sp21_babble_sn10_B4_linear.wav</t>
   </si>
   <si>
+    <t>sp21_babble_sn5_B40_linear.wav</t>
+  </si>
+  <si>
     <t>sp21_babble_sn5_B4_linear.wav</t>
+  </si>
+  <si>
+    <t>sp21_car_sn10_B40_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_car_sn10_B4_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_car_sn5_B40_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_car_sn5_B4_mel.wav</t>
+  </si>
+  <si>
+    <t>sp21_car_sn10_B40_linear.wav</t>
+  </si>
+  <si>
+    <t>sp21_car_sn10_B4_linear.wav</t>
+  </si>
+  <si>
+    <t>sp21_car_sn5_B40_linear.wav</t>
+  </si>
+  <si>
+    <t>sp21_car_sn5_B4_linear.wav</t>
   </si>
   <si>
     <t>SNR</t>
@@ -142,14 +223,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="true"/>
-    <col min="2" max="2" width="29.1796875" customWidth="true"/>
+    <col min="2" max="2" width="30.1796875" customWidth="true"/>
     <col min="3" max="3" width="12.08984375" customWidth="true"/>
     <col min="4" max="4" width="12.08984375" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
@@ -157,7 +238,7 @@
     <col min="7" max="7" width="11.453125" customWidth="true"/>
     <col min="8" max="8" width="11.453125" customWidth="true"/>
     <col min="9" max="9" width="11.453125" customWidth="true"/>
-    <col min="10" max="10" width="10.453125" customWidth="true"/>
+    <col min="10" max="10" width="11.453125" customWidth="true"/>
     <col min="11" max="11" width="11.453125" customWidth="true"/>
     <col min="12" max="12" width="11.453125" customWidth="true"/>
     <col min="13" max="13" width="11.453125" customWidth="true"/>
@@ -165,13 +246,13 @@
     <col min="15" max="15" width="11.453125" customWidth="true"/>
     <col min="16" max="16" width="11.453125" customWidth="true"/>
     <col min="17" max="17" width="11.453125" customWidth="true"/>
-    <col min="18" max="18" width="10.453125" customWidth="true"/>
+    <col min="18" max="18" width="11.453125" customWidth="true"/>
     <col min="19" max="19" width="11.453125" customWidth="true"/>
-    <col min="20" max="20" width="9.453125" customWidth="true"/>
+    <col min="20" max="20" width="11.453125" customWidth="true"/>
     <col min="21" max="21" width="12.453125" customWidth="true"/>
     <col min="22" max="22" width="12.453125" customWidth="true"/>
-    <col min="23" max="23" width="11.453125" customWidth="true"/>
-    <col min="24" max="24" width="12.453125" customWidth="true"/>
+    <col min="23" max="23" width="12.453125" customWidth="true"/>
+    <col min="24" max="24" width="13.453125" customWidth="true"/>
     <col min="25" max="25" width="12.453125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -180,76 +261,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -257,73 +338,73 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0">
-        <v>-2.9770116607249921</v>
+        <v>-9.5824128283272714</v>
       </c>
       <c r="D2" s="0">
-        <v>-6.1687107371541643</v>
+        <v>-9.1741676335031617</v>
       </c>
       <c r="E2" s="0">
-        <v>52.865300419949186</v>
+        <v>51.720455343479664</v>
       </c>
       <c r="F2" s="0">
-        <v>0.6707849596119817</v>
+        <v>0.55724021023659165</v>
       </c>
       <c r="G2" s="0">
-        <v>1.9494966649147361</v>
+        <v>2.3660122532559131</v>
       </c>
       <c r="H2" s="0">
-        <v>4.3878172665354862</v>
+        <v>4.1116228983304808</v>
       </c>
       <c r="I2" s="0">
-        <v>9.9214877371102865</v>
+        <v>10.258311394116422</v>
       </c>
       <c r="J2" s="0">
-        <v>3.3125283303607356</v>
+        <v>4.0250069637570043</v>
       </c>
       <c r="K2" s="0">
-        <v>2.4169960457996278</v>
+        <v>2.7213085788063047</v>
       </c>
       <c r="L2" s="0">
-        <v>2.7536028084064048</v>
+        <v>3.2717387220534304</v>
       </c>
       <c r="M2" s="0">
-        <v>3.3617551866522675</v>
+        <v>3.8733729205572409</v>
       </c>
       <c r="N2" s="0">
-        <v>2.0900902717162575</v>
+        <v>3.2772813659078057</v>
       </c>
       <c r="O2" s="0">
-        <v>2.6970148811465293</v>
+        <v>3.4090140112304708</v>
       </c>
       <c r="P2" s="0">
-        <v>2.7309720520442156</v>
+        <v>2.66246300699461</v>
       </c>
       <c r="Q2" s="0">
-        <v>2.4354094535932553</v>
+        <v>2.342573417076983</v>
       </c>
       <c r="R2" s="0">
-        <v>3.5737507201623897</v>
+        <v>3.65958091879298</v>
       </c>
       <c r="S2" s="0">
-        <v>2.1807187614967782</v>
+        <v>1.9666415690283667</v>
       </c>
       <c r="T2" s="0">
-        <v>3.0789334996346143</v>
+        <v>3.0899325455851687</v>
       </c>
       <c r="U2" s="0">
-        <v>0.90783986051863774</v>
+        <v>0.88938005014319099</v>
       </c>
       <c r="V2" s="0">
-        <v>0.91588889052351852</v>
+        <v>0.92422236979811057</v>
       </c>
       <c r="W2" s="0">
-        <v>0.67504121497867098</v>
+        <v>0.68565090932760198</v>
       </c>
       <c r="X2" s="0">
-        <v>0.15539004639092241</v>
+        <v>0.23139722582654471</v>
       </c>
       <c r="Y2" s="0">
         <v>0.23571173354711331</v>
@@ -334,75 +415,1769 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-7.7724108437626693</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-8.2937355970735798</v>
+      </c>
+      <c r="E3" s="0">
+        <v>51.321263334396164</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.59294629063405524</v>
+      </c>
+      <c r="G3" s="0">
+        <v>2.1930957319336382</v>
+      </c>
+      <c r="H3" s="0">
+        <v>4.1950657114362579</v>
+      </c>
+      <c r="I3" s="0">
+        <v>11.249505469074787</v>
+      </c>
+      <c r="J3" s="0">
+        <v>4.5371148660645959</v>
+      </c>
+      <c r="K3" s="0">
+        <v>2.7027448804832499</v>
+      </c>
+      <c r="L3" s="0">
+        <v>3.5567791232680777</v>
+      </c>
+      <c r="M3" s="0">
+        <v>3.8309799818272192</v>
+      </c>
+      <c r="N3" s="0">
+        <v>3.0526309693623084</v>
+      </c>
+      <c r="O3" s="0">
+        <v>3.3648767155542525</v>
+      </c>
+      <c r="P3" s="0">
+        <v>2.4498668063683509</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>2.0752580274302508</v>
+      </c>
+      <c r="R3" s="0">
+        <v>3.4982365811681073</v>
+      </c>
+      <c r="S3" s="0">
+        <v>1.9232821474876631</v>
+      </c>
+      <c r="T3" s="0">
+        <v>2.9033054349811129</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.89659774474363174</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.92808669258762799</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.68981018143604278</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.23116495209523238</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-11.050566685266876</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-9.6870331600671023</v>
+      </c>
+      <c r="E4" s="0">
+        <v>59.48745817136713</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.70947320256676194</v>
+      </c>
+      <c r="G4" s="0">
+        <v>3.0634903658785606</v>
+      </c>
+      <c r="H4" s="0">
+        <v>5.0408524387534488</v>
+      </c>
+      <c r="I4" s="0">
+        <v>8.3746736091694007</v>
+      </c>
+      <c r="J4" s="0">
+        <v>3.6429203639140937</v>
+      </c>
+      <c r="K4" s="0">
+        <v>2.3941112344305155</v>
+      </c>
+      <c r="L4" s="0">
+        <v>2.9108951359949473</v>
+      </c>
+      <c r="M4" s="0">
+        <v>3.6671866153973225</v>
+      </c>
+      <c r="N4" s="0">
+        <v>2.8596703904538661</v>
+      </c>
+      <c r="O4" s="0">
+        <v>2.8960031275966745</v>
+      </c>
+      <c r="P4" s="0">
+        <v>2.4338339498265205</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>2.0565130428945944</v>
+      </c>
+      <c r="R4" s="0">
+        <v>3.2882972158936474</v>
+      </c>
+      <c r="S4" s="0">
+        <v>1.7706773317332796</v>
+      </c>
+      <c r="T4" s="0">
+        <v>2.7701557292694443</v>
+      </c>
+      <c r="U4" s="0">
+        <v>0.76740330515545385</v>
+      </c>
+      <c r="V4" s="0">
+        <v>0.83109184634719846</v>
+      </c>
+      <c r="W4" s="0">
+        <v>0.56983339406825162</v>
+      </c>
+      <c r="X4" s="0">
+        <v>0.16972882705659134</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0">
+        <v>-9.4907309789482426</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-9.0753190880965491</v>
+      </c>
+      <c r="E5" s="0">
+        <v>56.262796661506741</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.73140236433840045</v>
+      </c>
+      <c r="G5" s="0">
+        <v>2.9239609295976821</v>
+      </c>
+      <c r="H5" s="0">
+        <v>5.0552277192026516</v>
+      </c>
+      <c r="I5" s="0">
+        <v>8.903875167753867</v>
+      </c>
+      <c r="J5" s="0">
+        <v>4.1083382185272841</v>
+      </c>
+      <c r="K5" s="0">
+        <v>2.3170688509923503</v>
+      </c>
+      <c r="L5" s="0">
+        <v>3.1465528521290827</v>
+      </c>
+      <c r="M5" s="0">
+        <v>3.5814781965448837</v>
+      </c>
+      <c r="N5" s="0">
+        <v>2.6077106947054967</v>
+      </c>
+      <c r="O5" s="0">
+        <v>2.8356916646417343</v>
+      </c>
+      <c r="P5" s="0">
+        <v>2.4920205633393078</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>2.1255324107121738</v>
+      </c>
+      <c r="R5" s="0">
+        <v>3.3297240899548943</v>
+      </c>
+      <c r="S5" s="0">
+        <v>1.8596011500955592</v>
+      </c>
+      <c r="T5" s="0">
+        <v>2.8282828859246556</v>
+      </c>
+      <c r="U5" s="0">
+        <v>0.77797083456571514</v>
+      </c>
+      <c r="V5" s="0">
+        <v>0.83693840333907466</v>
+      </c>
+      <c r="W5" s="0">
+        <v>0.57942784785875889</v>
+      </c>
+      <c r="X5" s="0">
+        <v>0.16806140262774583</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-7.4428678163181061</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-7.9750692803012644</v>
+      </c>
+      <c r="E6" s="0">
+        <v>50.761826561017848</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.54695766326194184</v>
+      </c>
+      <c r="G6" s="0">
+        <v>2.1286233455429473</v>
+      </c>
+      <c r="H6" s="0">
+        <v>4.0172705779613285</v>
+      </c>
+      <c r="I6" s="0">
+        <v>10.959053658501679</v>
+      </c>
+      <c r="J6" s="0">
+        <v>4.3091680344252996</v>
+      </c>
+      <c r="K6" s="0">
+        <v>2.7184078389816229</v>
+      </c>
+      <c r="L6" s="0">
+        <v>3.4204450567861828</v>
+      </c>
+      <c r="M6" s="0">
+        <v>4.0404910577804181</v>
+      </c>
+      <c r="N6" s="0">
+        <v>3.1917365027082445</v>
+      </c>
+      <c r="O6" s="0">
+        <v>3.5423618653729157</v>
+      </c>
+      <c r="P6" s="0">
+        <v>2.6648219209372077</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>2.3457208619006362</v>
+      </c>
+      <c r="R6" s="0">
+        <v>3.6801411500717567</v>
+      </c>
+      <c r="S6" s="0">
+        <v>2.0500227276218803</v>
+      </c>
+      <c r="T6" s="0">
+        <v>3.1037714114938382</v>
+      </c>
+      <c r="U6" s="0">
+        <v>0.8961580225706024</v>
+      </c>
+      <c r="V6" s="0">
+        <v>0.93169126287266679</v>
+      </c>
+      <c r="W6" s="0">
+        <v>0.69184583994722415</v>
+      </c>
+      <c r="X6" s="0">
+        <v>0.23123348513461014</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-7.5805870795420107</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-8.2053674133677088</v>
+      </c>
+      <c r="E7" s="0">
+        <v>50.55788949722961</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.60400804843285017</v>
+      </c>
+      <c r="G7" s="0">
+        <v>2.15884927240961</v>
+      </c>
+      <c r="H7" s="0">
+        <v>4.2083811879738562</v>
+      </c>
+      <c r="I7" s="0">
+        <v>11.426000080575236</v>
+      </c>
+      <c r="J7" s="0">
+        <v>4.5838699590815031</v>
+      </c>
+      <c r="K7" s="0">
+        <v>2.6962169623708476</v>
+      </c>
+      <c r="L7" s="0">
+        <v>3.5978282357917766</v>
+      </c>
+      <c r="M7" s="0">
+        <v>3.8117914495665239</v>
+      </c>
+      <c r="N7" s="0">
+        <v>2.9321423926383155</v>
+      </c>
+      <c r="O7" s="0">
+        <v>3.3056003697669403</v>
+      </c>
+      <c r="P7" s="0">
+        <v>2.6948519125796739</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>2.3861015060840671</v>
+      </c>
+      <c r="R7" s="0">
+        <v>3.6414504159730741</v>
+      </c>
+      <c r="S7" s="0">
+        <v>2.0512958406903112</v>
+      </c>
+      <c r="T7" s="0">
+        <v>3.100198442348411</v>
+      </c>
+      <c r="U7" s="0">
+        <v>0.89803785089815691</v>
+      </c>
+      <c r="V7" s="0">
+        <v>0.93314605568442866</v>
+      </c>
+      <c r="W7" s="0">
+        <v>0.69338756863496609</v>
+      </c>
+      <c r="X7" s="0">
+        <v>0.22960076063894702</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-9.0840594965963355</v>
+      </c>
+      <c r="D8" s="0">
+        <v>-8.8470193638745656</v>
+      </c>
+      <c r="E8" s="0">
+        <v>59.511284366037479</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.69937265913823454</v>
+      </c>
+      <c r="G8" s="0">
+        <v>2.8221800168146269</v>
+      </c>
+      <c r="H8" s="0">
+        <v>4.9329499383232767</v>
+      </c>
+      <c r="I8" s="0">
+        <v>8.7939147124179105</v>
+      </c>
+      <c r="J8" s="0">
+        <v>3.9463504973552173</v>
+      </c>
+      <c r="K8" s="0">
+        <v>2.4170345030448495</v>
+      </c>
+      <c r="L8" s="0">
+        <v>3.0805445375055611</v>
+      </c>
+      <c r="M8" s="0">
+        <v>3.7135608388451282</v>
+      </c>
+      <c r="N8" s="0">
+        <v>2.8532315738818905</v>
+      </c>
+      <c r="O8" s="0">
+        <v>2.9828332920678915</v>
+      </c>
+      <c r="P8" s="0">
+        <v>2.4522429244279378</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>2.0780538862256086</v>
+      </c>
+      <c r="R8" s="0">
+        <v>3.3081130905205227</v>
+      </c>
+      <c r="S8" s="0">
+        <v>1.8322309073901941</v>
+      </c>
+      <c r="T8" s="0">
+        <v>2.7892513247188697</v>
+      </c>
+      <c r="U8" s="0">
+        <v>0.77544015772615338</v>
+      </c>
+      <c r="V8" s="0">
+        <v>0.839752198847735</v>
+      </c>
+      <c r="W8" s="0">
+        <v>0.5740199406573413</v>
+      </c>
+      <c r="X8" s="0">
+        <v>0.16829557551552662</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0">
+        <v>-9.2438029843169787</v>
+      </c>
+      <c r="D9" s="0">
+        <v>-9.0205737609961609</v>
+      </c>
+      <c r="E9" s="0">
+        <v>55.49929463277838</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.73798549262551394</v>
+      </c>
+      <c r="G9" s="0">
+        <v>2.8829019052817935</v>
+      </c>
+      <c r="H9" s="0">
+        <v>5.0672852252014771</v>
+      </c>
+      <c r="I9" s="0">
+        <v>8.9973087052658514</v>
+      </c>
+      <c r="J9" s="0">
+        <v>4.0924812513244735</v>
+      </c>
+      <c r="K9" s="0">
+        <v>2.2841751804019723</v>
+      </c>
+      <c r="L9" s="0">
+        <v>3.1314511385834298</v>
+      </c>
+      <c r="M9" s="0">
+        <v>3.4184596754824637</v>
+      </c>
+      <c r="N9" s="0">
+        <v>2.5336988603581765</v>
+      </c>
+      <c r="O9" s="0">
+        <v>2.7363900754505668</v>
+      </c>
+      <c r="P9" s="0">
+        <v>2.4900298792765581</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>2.1231263538321104</v>
+      </c>
+      <c r="R9" s="0">
+        <v>3.3309314391055582</v>
+      </c>
+      <c r="S9" s="0">
+        <v>1.8674430729219882</v>
+      </c>
+      <c r="T9" s="0">
+        <v>2.829803851108843</v>
+      </c>
+      <c r="U9" s="0">
+        <v>0.77862289551678754</v>
+      </c>
+      <c r="V9" s="0">
+        <v>0.8394153528235403</v>
+      </c>
+      <c r="W9" s="0">
+        <v>0.58212677840617411</v>
+      </c>
+      <c r="X9" s="0">
+        <v>0.16698273518118437</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0">
+        <v>-9.0798239756359482</v>
+      </c>
+      <c r="D10" s="0">
+        <v>-9.0461290483398322</v>
+      </c>
+      <c r="E10" s="0">
+        <v>50.12025620178197</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.71055330480377343</v>
+      </c>
+      <c r="G10" s="0">
+        <v>2.3418530667596924</v>
+      </c>
+      <c r="H10" s="0">
+        <v>4.8603445061109687</v>
+      </c>
+      <c r="I10" s="0">
+        <v>8.9049983488079807</v>
+      </c>
+      <c r="J10" s="0">
+        <v>3.3122137379319856</v>
+      </c>
+      <c r="K10" s="0">
+        <v>2.6030598085448213</v>
+      </c>
+      <c r="L10" s="0">
+        <v>2.7859035691502689</v>
+      </c>
+      <c r="M10" s="0">
+        <v>3.1730683222748626</v>
+      </c>
+      <c r="N10" s="0">
+        <v>3.0284472147032457</v>
+      </c>
+      <c r="O10" s="0">
+        <v>3.1014948902457049</v>
+      </c>
+      <c r="P10" s="0">
+        <v>2.7219141708587462</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>2.4229713179195609</v>
+      </c>
+      <c r="R10" s="0">
+        <v>3.552072588568703</v>
+      </c>
+      <c r="S10" s="0">
+        <v>2.0143270502125969</v>
+      </c>
+      <c r="T10" s="0">
+        <v>3.0704958220692853</v>
+      </c>
+      <c r="U10" s="0">
+        <v>0.8896384952447306</v>
+      </c>
+      <c r="V10" s="0">
+        <v>0.89473024657878764</v>
+      </c>
+      <c r="W10" s="0">
+        <v>0.67066654846581508</v>
+      </c>
+      <c r="X10" s="0">
+        <v>0.15950330480348793</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="0">
+        <v>-7.3709587039774682</v>
+      </c>
+      <c r="D11" s="0">
+        <v>-8.3912346976851211</v>
+      </c>
+      <c r="E11" s="0">
+        <v>49.230385585802992</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.85625590884623282</v>
+      </c>
+      <c r="G11" s="0">
+        <v>2.0577524102331646</v>
+      </c>
+      <c r="H11" s="0">
+        <v>5.3096926676908494</v>
+      </c>
+      <c r="I11" s="0">
+        <v>9.4972693508734825</v>
+      </c>
+      <c r="J11" s="0">
+        <v>3.6006225619255021</v>
+      </c>
+      <c r="K11" s="0">
+        <v>2.6033455147280948</v>
+      </c>
+      <c r="L11" s="0">
+        <v>2.9649323076853702</v>
+      </c>
+      <c r="M11" s="0">
+        <v>3.0989318765291141</v>
+      </c>
+      <c r="N11" s="0">
+        <v>2.6428948842593663</v>
+      </c>
+      <c r="O11" s="0">
+        <v>3.133482151383403</v>
+      </c>
+      <c r="P11" s="0">
+        <v>2.7744620459031446</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>2.495775594425425</v>
+      </c>
+      <c r="R11" s="0">
+        <v>3.4394310853413259</v>
+      </c>
+      <c r="S11" s="0">
+        <v>2.0869323728869191</v>
+      </c>
+      <c r="T11" s="0">
+        <v>3.043227710699016</v>
+      </c>
+      <c r="U11" s="0">
+        <v>0.91141456875699634</v>
+      </c>
+      <c r="V11" s="0">
+        <v>0.91173636133353053</v>
+      </c>
+      <c r="W11" s="0">
+        <v>0.68129179981694188</v>
+      </c>
+      <c r="X11" s="0">
+        <v>0.15874973316232124</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-9.2373724911582951</v>
+      </c>
+      <c r="D12" s="0">
+        <v>-8.6033287352025081</v>
+      </c>
+      <c r="E12" s="0">
+        <v>54.892833608638483</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.65411287248751371</v>
+      </c>
+      <c r="G12" s="0">
+        <v>2.6560168180466968</v>
+      </c>
+      <c r="H12" s="0">
+        <v>4.6423274901511657</v>
+      </c>
+      <c r="I12" s="0">
+        <v>7.7583350720211488</v>
+      </c>
+      <c r="J12" s="0">
+        <v>2.8806623801331526</v>
+      </c>
+      <c r="K12" s="0">
+        <v>2.2350039470741776</v>
+      </c>
+      <c r="L12" s="0">
+        <v>2.3761776953386606</v>
+      </c>
+      <c r="M12" s="0">
+        <v>3.115952417511199</v>
+      </c>
+      <c r="N12" s="0">
+        <v>2.0215062172924832</v>
+      </c>
+      <c r="O12" s="0">
+        <v>2.368043140898036</v>
+      </c>
+      <c r="P12" s="0">
+        <v>2.7230318483953071</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>2.4245034943081008</v>
+      </c>
+      <c r="R12" s="0">
+        <v>3.5678705563149724</v>
+      </c>
+      <c r="S12" s="0">
+        <v>2.00934967795473</v>
+      </c>
+      <c r="T12" s="0">
+        <v>3.0668850119841458</v>
+      </c>
+      <c r="U12" s="0">
+        <v>0.70941283958631751</v>
+      </c>
+      <c r="V12" s="0">
+        <v>0.77093997863379504</v>
+      </c>
+      <c r="W12" s="0">
+        <v>0.55746803093234731</v>
+      </c>
+      <c r="X12" s="0">
+        <v>0.037301957376436469</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0">
+        <v>-7.9343156254346319</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-8.2845867733355796</v>
+      </c>
+      <c r="E13" s="0">
+        <v>54.151814431472864</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.71885533354508957</v>
+      </c>
+      <c r="G13" s="0">
+        <v>2.5082123432836316</v>
+      </c>
+      <c r="H13" s="0">
+        <v>4.8252629192670993</v>
+      </c>
+      <c r="I13" s="0">
+        <v>8.4264866525146207</v>
+      </c>
+      <c r="J13" s="0">
+        <v>3.068592761941634</v>
+      </c>
+      <c r="K13" s="0">
+        <v>2.3188649365070147</v>
+      </c>
+      <c r="L13" s="0">
+        <v>2.5081031775114941</v>
+      </c>
+      <c r="M13" s="0">
+        <v>3.3450542552491975</v>
+      </c>
+      <c r="N13" s="0">
+        <v>1.7566101887311403</v>
+      </c>
+      <c r="O13" s="0">
+        <v>2.5472648906848763</v>
+      </c>
+      <c r="P13" s="0">
+        <v>2.6194801606030911</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>2.2858727377955299</v>
+      </c>
+      <c r="R13" s="0">
+        <v>3.4454780687425113</v>
+      </c>
+      <c r="S13" s="0">
+        <v>1.9851198490278259</v>
+      </c>
+      <c r="T13" s="0">
+        <v>2.9555648974900923</v>
+      </c>
+      <c r="U13" s="0">
+        <v>0.73472126018962847</v>
+      </c>
+      <c r="V13" s="0">
+        <v>0.79232335206202165</v>
+      </c>
+      <c r="W13" s="0">
+        <v>0.57413924636247549</v>
+      </c>
+      <c r="X13" s="0">
+        <v>0.037105882598311317</v>
+      </c>
+      <c r="Y13" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0">
-        <v>-3.3279836517614427</v>
-      </c>
-      <c r="D3" s="0">
-        <v>-5.852490205419727</v>
-      </c>
-      <c r="E3" s="0">
-        <v>53.030317650112366</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.6950850292804126</v>
-      </c>
-      <c r="G3" s="0">
-        <v>2.0559118025736845</v>
-      </c>
-      <c r="H3" s="0">
-        <v>4.6507258368237823</v>
-      </c>
-      <c r="I3" s="0">
-        <v>8.3706999195057552</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2.8255435639555628</v>
-      </c>
-      <c r="K3" s="0">
-        <v>2.2919036632867469</v>
-      </c>
-      <c r="L3" s="0">
-        <v>2.3496619599545157</v>
-      </c>
-      <c r="M3" s="0">
-        <v>3.210361674149389</v>
-      </c>
-      <c r="N3" s="0">
-        <v>2.2593391476036637</v>
-      </c>
-      <c r="O3" s="0">
-        <v>2.5378495116437056</v>
-      </c>
-      <c r="P3" s="0">
-        <v>2.7535323941791927</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>2.4665936997930142</v>
-      </c>
-      <c r="R3" s="0">
-        <v>3.5608646797094976</v>
-      </c>
-      <c r="S3" s="0">
-        <v>2.2102693779254246</v>
-      </c>
-      <c r="T3" s="0">
-        <v>3.0834978187718925</v>
-      </c>
-      <c r="U3" s="0">
-        <v>0.74466718094297457</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.80019897180260313</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.56721673971618014</v>
-      </c>
-      <c r="X3" s="0">
-        <v>0.047586752633639928</v>
-      </c>
-      <c r="Y3" s="0">
+      <c r="B14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-6.9215611047387284</v>
+      </c>
+      <c r="D14" s="0">
+        <v>-7.8499725650964054</v>
+      </c>
+      <c r="E14" s="0">
+        <v>50.131379107634174</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.68113039142274878</v>
+      </c>
+      <c r="G14" s="0">
+        <v>2.1156419129913857</v>
+      </c>
+      <c r="H14" s="0">
+        <v>4.7008023752301211</v>
+      </c>
+      <c r="I14" s="0">
+        <v>9.2439179307867807</v>
+      </c>
+      <c r="J14" s="0">
+        <v>3.5212487055787687</v>
+      </c>
+      <c r="K14" s="0">
+        <v>2.5958062868007818</v>
+      </c>
+      <c r="L14" s="0">
+        <v>2.8840024895083132</v>
+      </c>
+      <c r="M14" s="0">
+        <v>3.393585392694602</v>
+      </c>
+      <c r="N14" s="0">
+        <v>2.9546216932141527</v>
+      </c>
+      <c r="O14" s="0">
+        <v>3.2493959425862329</v>
+      </c>
+      <c r="P14" s="0">
+        <v>2.7344974869155054</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>2.4402634232332647</v>
+      </c>
+      <c r="R14" s="0">
+        <v>3.5898363998673339</v>
+      </c>
+      <c r="S14" s="0">
+        <v>2.095621873391099</v>
+      </c>
+      <c r="T14" s="0">
+        <v>3.0956120628050954</v>
+      </c>
+      <c r="U14" s="0">
+        <v>0.88858402659187275</v>
+      </c>
+      <c r="V14" s="0">
+        <v>0.90386852310288057</v>
+      </c>
+      <c r="W14" s="0">
+        <v>0.675032054959951</v>
+      </c>
+      <c r="X14" s="0">
+        <v>0.15797993057696483</v>
+      </c>
+      <c r="Y14" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="0">
+        <v>-7.2784232324070883</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-8.3629787926974686</v>
+      </c>
+      <c r="E15" s="0">
+        <v>47.316873681297373</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.78156604346445013</v>
+      </c>
+      <c r="G15" s="0">
+        <v>2.1106107457845096</v>
+      </c>
+      <c r="H15" s="0">
+        <v>5.1115513306753053</v>
+      </c>
+      <c r="I15" s="0">
+        <v>9.6705856082190849</v>
+      </c>
+      <c r="J15" s="0">
+        <v>3.5895610552877342</v>
+      </c>
+      <c r="K15" s="0">
+        <v>2.553339555281847</v>
+      </c>
+      <c r="L15" s="0">
+        <v>2.9387717380203897</v>
+      </c>
+      <c r="M15" s="0">
+        <v>3.2295714033168954</v>
+      </c>
+      <c r="N15" s="0">
+        <v>2.9533140084729679</v>
+      </c>
+      <c r="O15" s="0">
+        <v>3.212350514459434</v>
+      </c>
+      <c r="P15" s="0">
+        <v>2.7770405825025994</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>2.4993869958836177</v>
+      </c>
+      <c r="R15" s="0">
+        <v>3.5373843991916569</v>
+      </c>
+      <c r="S15" s="0">
+        <v>2.1033396187272202</v>
+      </c>
+      <c r="T15" s="0">
+        <v>3.0980940769842129</v>
+      </c>
+      <c r="U15" s="0">
+        <v>0.90962977530131606</v>
+      </c>
+      <c r="V15" s="0">
+        <v>0.91233201634885241</v>
+      </c>
+      <c r="W15" s="0">
+        <v>0.68306495680843937</v>
+      </c>
+      <c r="X15" s="0">
+        <v>0.16299396375565781</v>
+      </c>
+      <c r="Y15" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="0">
+        <v>-7.1697025857806835</v>
+      </c>
+      <c r="D16" s="0">
+        <v>-7.4620742168652043</v>
+      </c>
+      <c r="E16" s="0">
+        <v>54.843544568584328</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.66710790232421191</v>
+      </c>
+      <c r="G16" s="0">
+        <v>2.4323462165794112</v>
+      </c>
+      <c r="H16" s="0">
+        <v>4.6437370393672151</v>
+      </c>
+      <c r="I16" s="0">
+        <v>7.9158073788230272</v>
+      </c>
+      <c r="J16" s="0">
+        <v>2.9895745615070437</v>
+      </c>
+      <c r="K16" s="0">
+        <v>2.2315802958298097</v>
+      </c>
+      <c r="L16" s="0">
+        <v>2.4244421244607839</v>
+      </c>
+      <c r="M16" s="0">
+        <v>3.2546529745636064</v>
+      </c>
+      <c r="N16" s="0">
+        <v>1.8693268827709875</v>
+      </c>
+      <c r="O16" s="0">
+        <v>2.3687081533950698</v>
+      </c>
+      <c r="P16" s="0">
+        <v>2.7301250229368401</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>2.4342442986904493</v>
+      </c>
+      <c r="R16" s="0">
+        <v>3.5592194562220416</v>
+      </c>
+      <c r="S16" s="0">
+        <v>2.0849842733212109</v>
+      </c>
+      <c r="T16" s="0">
+        <v>3.0662865854940691</v>
+      </c>
+      <c r="U16" s="0">
+        <v>0.71195459359621494</v>
+      </c>
+      <c r="V16" s="0">
+        <v>0.77651804519591239</v>
+      </c>
+      <c r="W16" s="0">
+        <v>0.5591676055538255</v>
+      </c>
+      <c r="X16" s="0">
+        <v>0.040374852347509566</v>
+      </c>
+      <c r="Y16" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="0">
+        <v>-7.8510896338001661</v>
+      </c>
+      <c r="D17" s="0">
+        <v>-8.2356835119162781</v>
+      </c>
+      <c r="E17" s="0">
+        <v>52.85102523535862</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.69171071728750633</v>
+      </c>
+      <c r="G17" s="0">
+        <v>2.4954156913027155</v>
+      </c>
+      <c r="H17" s="0">
+        <v>4.7311428674796367</v>
+      </c>
+      <c r="I17" s="0">
+        <v>8.4461103216781215</v>
+      </c>
+      <c r="J17" s="0">
+        <v>3.0374790651603814</v>
+      </c>
+      <c r="K17" s="0">
+        <v>2.2783869812963182</v>
+      </c>
+      <c r="L17" s="0">
+        <v>2.4840753441622976</v>
+      </c>
+      <c r="M17" s="0">
+        <v>3.3943127303457637</v>
+      </c>
+      <c r="N17" s="0">
+        <v>1.8297121112563359</v>
+      </c>
+      <c r="O17" s="0">
+        <v>2.5818125086023827</v>
+      </c>
+      <c r="P17" s="0">
+        <v>2.6188317079558234</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>2.2850269821632438</v>
+      </c>
+      <c r="R17" s="0">
+        <v>3.4845402117870137</v>
+      </c>
+      <c r="S17" s="0">
+        <v>1.9969963185046478</v>
+      </c>
+      <c r="T17" s="0">
+        <v>2.9779540358487981</v>
+      </c>
+      <c r="U17" s="0">
+        <v>0.73287202469723822</v>
+      </c>
+      <c r="V17" s="0">
+        <v>0.79303680182812375</v>
+      </c>
+      <c r="W17" s="0">
+        <v>0.5741035127262285</v>
+      </c>
+      <c r="X17" s="0">
+        <v>0.039376514242140469</v>
+      </c>
+      <c r="Y17" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="0">
+        <v>-8.9584932446703007</v>
+      </c>
+      <c r="D18" s="0">
+        <v>-8.873593594382891</v>
+      </c>
+      <c r="E18" s="0">
+        <v>38.220739041185659</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.51877232396461037</v>
+      </c>
+      <c r="G18" s="0">
+        <v>2.3594006341458327</v>
+      </c>
+      <c r="H18" s="0">
+        <v>3.9755049836702043</v>
+      </c>
+      <c r="I18" s="0">
+        <v>9.9035625967112182</v>
+      </c>
+      <c r="J18" s="0">
+        <v>3.6928898076440477</v>
+      </c>
+      <c r="K18" s="0">
+        <v>2.7268294839152176</v>
+      </c>
+      <c r="L18" s="0">
+        <v>3.0801947825827703</v>
+      </c>
+      <c r="M18" s="0">
+        <v>3.7202774355381259</v>
+      </c>
+      <c r="N18" s="0">
+        <v>3.0079665603829273</v>
+      </c>
+      <c r="O18" s="0">
+        <v>3.0370434964242374</v>
+      </c>
+      <c r="P18" s="0">
+        <v>2.8669955555217852</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>2.6273920376401194</v>
+      </c>
+      <c r="R18" s="0">
+        <v>3.9439949472493816</v>
+      </c>
+      <c r="S18" s="0">
+        <v>2.1778423058049921</v>
+      </c>
+      <c r="T18" s="0">
+        <v>3.3687748190368572</v>
+      </c>
+      <c r="U18" s="0">
+        <v>0.91521526869367653</v>
+      </c>
+      <c r="V18" s="0">
+        <v>0.88756239302857365</v>
+      </c>
+      <c r="W18" s="0">
+        <v>0.6689881779691631</v>
+      </c>
+      <c r="X18" s="0">
+        <v>0.18583959315825643</v>
+      </c>
+      <c r="Y18" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="0">
+        <v>-7.158001708845112</v>
+      </c>
+      <c r="D19" s="0">
+        <v>-8.0558539834181691</v>
+      </c>
+      <c r="E19" s="0">
+        <v>40.250510195001006</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.61919462247363455</v>
+      </c>
+      <c r="G19" s="0">
+        <v>2.0044190812595364</v>
+      </c>
+      <c r="H19" s="0">
+        <v>4.4033992740406802</v>
+      </c>
+      <c r="I19" s="0">
+        <v>10.39732594346151</v>
+      </c>
+      <c r="J19" s="0">
+        <v>3.9704103659497934</v>
+      </c>
+      <c r="K19" s="0">
+        <v>2.7598223019836046</v>
+      </c>
+      <c r="L19" s="0">
+        <v>3.2453303962066995</v>
+      </c>
+      <c r="M19" s="0">
+        <v>3.4759029590442334</v>
+      </c>
+      <c r="N19" s="0">
+        <v>2.8772103527418933</v>
+      </c>
+      <c r="O19" s="0">
+        <v>3.1605209439880846</v>
+      </c>
+      <c r="P19" s="0">
+        <v>2.9264202507704384</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>2.7137923163946991</v>
+      </c>
+      <c r="R19" s="0">
+        <v>3.8582255529341949</v>
+      </c>
+      <c r="S19" s="0">
+        <v>2.2435565075479174</v>
+      </c>
+      <c r="T19" s="0">
+        <v>3.3509870837986955</v>
+      </c>
+      <c r="U19" s="0">
+        <v>0.93423976687580701</v>
+      </c>
+      <c r="V19" s="0">
+        <v>0.89304518763372776</v>
+      </c>
+      <c r="W19" s="0">
+        <v>0.68085202724810123</v>
+      </c>
+      <c r="X19" s="0">
+        <v>0.19221183687306087</v>
+      </c>
+      <c r="Y19" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="0">
+        <v>-8.8766347355367614</v>
+      </c>
+      <c r="D20" s="0">
+        <v>-8.6081708589259573</v>
+      </c>
+      <c r="E20" s="0">
+        <v>47.979361311593273</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.64290515070231691</v>
+      </c>
+      <c r="G20" s="0">
+        <v>2.9836420392393879</v>
+      </c>
+      <c r="H20" s="0">
+        <v>4.3975640466811861</v>
+      </c>
+      <c r="I20" s="0">
+        <v>8.1315951456343978</v>
+      </c>
+      <c r="J20" s="0">
+        <v>2.951551107271996</v>
+      </c>
+      <c r="K20" s="0">
+        <v>2.3955034190945241</v>
+      </c>
+      <c r="L20" s="0">
+        <v>2.4654007732112238</v>
+      </c>
+      <c r="M20" s="0">
+        <v>3.2462647189006222</v>
+      </c>
+      <c r="N20" s="0">
+        <v>2.5485631577063987</v>
+      </c>
+      <c r="O20" s="0">
+        <v>2.5646775497003453</v>
+      </c>
+      <c r="P20" s="0">
+        <v>2.365394479657275</v>
+      </c>
+      <c r="Q20" s="0">
+        <v>1.978882796104382</v>
+      </c>
+      <c r="R20" s="0">
+        <v>3.4259692193563129</v>
+      </c>
+      <c r="S20" s="0">
+        <v>1.8864882679826893</v>
+      </c>
+      <c r="T20" s="0">
+        <v>2.833119589783367</v>
+      </c>
+      <c r="U20" s="0">
+        <v>0.69865191239193747</v>
+      </c>
+      <c r="V20" s="0">
+        <v>0.69564577666828786</v>
+      </c>
+      <c r="W20" s="0">
+        <v>0.53595758738828136</v>
+      </c>
+      <c r="X20" s="0">
+        <v>0.06221915034837313</v>
+      </c>
+      <c r="Y20" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="0">
+        <v>-7.4992468022882406</v>
+      </c>
+      <c r="D21" s="0">
+        <v>-8.1619954123272489</v>
+      </c>
+      <c r="E21" s="0">
+        <v>48.856892960477175</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.6698933745163953</v>
+      </c>
+      <c r="G21" s="0">
+        <v>2.6986207644167886</v>
+      </c>
+      <c r="H21" s="0">
+        <v>4.5542326284231116</v>
+      </c>
+      <c r="I21" s="0">
+        <v>8.6586653438668986</v>
+      </c>
+      <c r="J21" s="0">
+        <v>3.1387567090541442</v>
+      </c>
+      <c r="K21" s="0">
+        <v>2.4979219362827654</v>
+      </c>
+      <c r="L21" s="0">
+        <v>2.6373899315064353</v>
+      </c>
+      <c r="M21" s="0">
+        <v>3.0931199797013851</v>
+      </c>
+      <c r="N21" s="0">
+        <v>2.6151803726286165</v>
+      </c>
+      <c r="O21" s="0">
+        <v>2.7054014666091457</v>
+      </c>
+      <c r="P21" s="0">
+        <v>2.4096659882560658</v>
+      </c>
+      <c r="Q21" s="0">
+        <v>2.0286551012774519</v>
+      </c>
+      <c r="R21" s="0">
+        <v>3.4169962718967426</v>
+      </c>
+      <c r="S21" s="0">
+        <v>1.9296163806864426</v>
+      </c>
+      <c r="T21" s="0">
+        <v>2.8487974620703991</v>
+      </c>
+      <c r="U21" s="0">
+        <v>0.73188562895453813</v>
+      </c>
+      <c r="V21" s="0">
+        <v>0.70513261805590322</v>
+      </c>
+      <c r="W21" s="0">
+        <v>0.55365728112241441</v>
+      </c>
+      <c r="X21" s="0">
+        <v>0.071691263230691901</v>
+      </c>
+      <c r="Y21" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="0">
+        <v>-6.7579803115235393</v>
+      </c>
+      <c r="D22" s="0">
+        <v>-7.5039258364670767</v>
+      </c>
+      <c r="E22" s="0">
+        <v>37.90725930703028</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.51460923907824307</v>
+      </c>
+      <c r="G22" s="0">
+        <v>2.1325875156508962</v>
+      </c>
+      <c r="H22" s="0">
+        <v>3.8848645333892375</v>
+      </c>
+      <c r="I22" s="0">
+        <v>10.271451942004312</v>
+      </c>
+      <c r="J22" s="0">
+        <v>3.9202004581495382</v>
+      </c>
+      <c r="K22" s="0">
+        <v>2.7025776264805521</v>
+      </c>
+      <c r="L22" s="0">
+        <v>3.2084853360034593</v>
+      </c>
+      <c r="M22" s="0">
+        <v>3.6319512025239042</v>
+      </c>
+      <c r="N22" s="0">
+        <v>3.059629932228578</v>
+      </c>
+      <c r="O22" s="0">
+        <v>3.1291076408222174</v>
+      </c>
+      <c r="P22" s="0">
+        <v>2.8552030201000864</v>
+      </c>
+      <c r="Q22" s="0">
+        <v>2.6104047799002346</v>
+      </c>
+      <c r="R22" s="0">
+        <v>3.9439891803455671</v>
+      </c>
+      <c r="S22" s="0">
+        <v>2.2606889007612034</v>
+      </c>
+      <c r="T22" s="0">
+        <v>3.3636076856232973</v>
+      </c>
+      <c r="U22" s="0">
+        <v>0.91681607657749364</v>
+      </c>
+      <c r="V22" s="0">
+        <v>0.89567443240235767</v>
+      </c>
+      <c r="W22" s="0">
+        <v>0.67308089119553693</v>
+      </c>
+      <c r="X22" s="0">
+        <v>0.18627156098502334</v>
+      </c>
+      <c r="Y22" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="0">
+        <v>-7.0544440649567006</v>
+      </c>
+      <c r="D23" s="0">
+        <v>-8.0157420410674938</v>
+      </c>
+      <c r="E23" s="0">
+        <v>38.5379279202186</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.56704021610962885</v>
+      </c>
+      <c r="G23" s="0">
+        <v>2.0665630601016471</v>
+      </c>
+      <c r="H23" s="0">
+        <v>4.1877836226637468</v>
+      </c>
+      <c r="I23" s="0">
+        <v>10.569585463714818</v>
+      </c>
+      <c r="J23" s="0">
+        <v>3.9782988466761911</v>
+      </c>
+      <c r="K23" s="0">
+        <v>2.7224558698763888</v>
+      </c>
+      <c r="L23" s="0">
+        <v>3.2591998360371561</v>
+      </c>
+      <c r="M23" s="0">
+        <v>3.5962990988315715</v>
+      </c>
+      <c r="N23" s="0">
+        <v>3.0639738323026093</v>
+      </c>
+      <c r="O23" s="0">
+        <v>3.2179090190503925</v>
+      </c>
+      <c r="P23" s="0">
+        <v>2.9116599766071274</v>
+      </c>
+      <c r="Q23" s="0">
+        <v>2.6922164907510662</v>
+      </c>
+      <c r="R23" s="0">
+        <v>3.9184052322353224</v>
+      </c>
+      <c r="S23" s="0">
+        <v>2.2510162247894243</v>
+      </c>
+      <c r="T23" s="0">
+        <v>3.3777961950790778</v>
+      </c>
+      <c r="U23" s="0">
+        <v>0.93261131462469837</v>
+      </c>
+      <c r="V23" s="0">
+        <v>0.8950011143504365</v>
+      </c>
+      <c r="W23" s="0">
+        <v>0.67931864399795971</v>
+      </c>
+      <c r="X23" s="0">
+        <v>0.19061100936743392</v>
+      </c>
+      <c r="Y23" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="0">
+        <v>-6.8104239665454136</v>
+      </c>
+      <c r="D24" s="0">
+        <v>-7.4133267670838894</v>
+      </c>
+      <c r="E24" s="0">
+        <v>47.427618265708169</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.66934299066964032</v>
+      </c>
+      <c r="G24" s="0">
+        <v>2.7504760097083563</v>
+      </c>
+      <c r="H24" s="0">
+        <v>4.4220350545000633</v>
+      </c>
+      <c r="I24" s="0">
+        <v>8.246687093050685</v>
+      </c>
+      <c r="J24" s="0">
+        <v>3.0382160866186494</v>
+      </c>
+      <c r="K24" s="0">
+        <v>2.3278118680630948</v>
+      </c>
+      <c r="L24" s="0">
+        <v>2.4896621160349946</v>
+      </c>
+      <c r="M24" s="0">
+        <v>3.2721334728884739</v>
+      </c>
+      <c r="N24" s="0">
+        <v>2.5924568923491176</v>
+      </c>
+      <c r="O24" s="0">
+        <v>2.4856093860558719</v>
+      </c>
+      <c r="P24" s="0">
+        <v>2.340898760808269</v>
+      </c>
+      <c r="Q24" s="0">
+        <v>1.9520515965052394</v>
+      </c>
+      <c r="R24" s="0">
+        <v>3.388959450976953</v>
+      </c>
+      <c r="S24" s="0">
+        <v>1.9539166934801102</v>
+      </c>
+      <c r="T24" s="0">
+        <v>2.8037265633678436</v>
+      </c>
+      <c r="U24" s="0">
+        <v>0.70355553060344722</v>
+      </c>
+      <c r="V24" s="0">
+        <v>0.70225330831212352</v>
+      </c>
+      <c r="W24" s="0">
+        <v>0.53840116638655</v>
+      </c>
+      <c r="X24" s="0">
+        <v>0.061737325881793335</v>
+      </c>
+      <c r="Y24" s="0">
+        <v>0.23571173354711331</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="0">
+        <v>-7.4125418879845242</v>
+      </c>
+      <c r="D25" s="0">
+        <v>-8.1353150728844046</v>
+      </c>
+      <c r="E25" s="0">
+        <v>47.363363602706251</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.66149764821939416</v>
+      </c>
+      <c r="G25" s="0">
+        <v>2.7585556491194239</v>
+      </c>
+      <c r="H25" s="0">
+        <v>4.4670706188314044</v>
+      </c>
+      <c r="I25" s="0">
+        <v>8.614878454138454</v>
+      </c>
+      <c r="J25" s="0">
+        <v>3.1769462397364396</v>
+      </c>
+      <c r="K25" s="0">
+        <v>2.4409215586232458</v>
+      </c>
+      <c r="L25" s="0">
+        <v>2.638324734451436</v>
+      </c>
+      <c r="M25" s="0">
+        <v>3.3109147440146525</v>
+      </c>
+      <c r="N25" s="0">
+        <v>2.6976298336409603</v>
+      </c>
+      <c r="O25" s="0">
+        <v>2.7585142020253044</v>
+      </c>
+      <c r="P25" s="0">
+        <v>2.4015008611796729</v>
+      </c>
+      <c r="Q25" s="0">
+        <v>2.0193524134531611</v>
+      </c>
+      <c r="R25" s="0">
+        <v>3.4341536668492299</v>
+      </c>
+      <c r="S25" s="0">
+        <v>1.9378490168332223</v>
+      </c>
+      <c r="T25" s="0">
+        <v>2.856977852142363</v>
+      </c>
+      <c r="U25" s="0">
+        <v>0.72711278049275374</v>
+      </c>
+      <c r="V25" s="0">
+        <v>0.70333317358827652</v>
+      </c>
+      <c r="W25" s="0">
+        <v>0.55259112223190099</v>
+      </c>
+      <c r="X25" s="0">
+        <v>0.071803011094021138</v>
+      </c>
+      <c r="Y25" s="0">
         <v>0.23571173354711331</v>
       </c>
     </row>
